--- a/bondingCurve.xlsx
+++ b/bondingCurve.xlsx
@@ -369,7 +369,7 @@
         <v>1960.20000000</v>
       </c>
       <c r="G3" t="str">
-        <v>Wed Feb  9 18:48:27 2022</v>
+        <v>Wed Feb  9 15:59:22 2022</v>
       </c>
     </row>
     <row r="4">
@@ -392,7 +392,7 @@
         <v>1920.79998000</v>
       </c>
       <c r="G4" t="str">
-        <v>Wed Feb  9 18:48:27 2022</v>
+        <v>Wed Feb  9 15:59:22 2022</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         <v>1881.79813641</v>
       </c>
       <c r="G5" t="str">
-        <v>Wed Feb  9 18:48:27 2022</v>
+        <v>Wed Feb  9 15:59:22 2022</v>
       </c>
     </row>
     <row r="6">
@@ -438,7 +438,7 @@
         <v>1843.19681124</v>
       </c>
       <c r="G6" t="str">
-        <v>Wed Feb  9 18:48:27 2022</v>
+        <v>Wed Feb  9 15:59:23 2022</v>
       </c>
     </row>
     <row r="7">
@@ -461,7 +461,7 @@
         <v>1804.99655733</v>
       </c>
       <c r="G7" t="str">
-        <v>Wed Feb  9 18:48:27 2022</v>
+        <v>Wed Feb  9 15:59:23 2022</v>
       </c>
     </row>
     <row r="8">
@@ -484,7 +484,7 @@
         <v>1767.19631942</v>
       </c>
       <c r="G8" t="str">
-        <v>Wed Feb  9 18:48:28 2022</v>
+        <v>Wed Feb  9 15:59:23 2022</v>
       </c>
     </row>
     <row r="9">
@@ -507,7 +507,7 @@
         <v>1729.79537652</v>
       </c>
       <c r="G9" t="str">
-        <v>Wed Feb  9 18:48:28 2022</v>
+        <v>Wed Feb  9 15:59:23 2022</v>
       </c>
     </row>
     <row r="10">
@@ -530,7 +530,7 @@
         <v>1692.79505341</v>
       </c>
       <c r="G10" t="str">
-        <v>Wed Feb  9 18:48:28 2022</v>
+        <v>Wed Feb  9 15:59:23 2022</v>
       </c>
     </row>
     <row r="11">
@@ -553,7 +553,7 @@
         <v>1656.19513157</v>
       </c>
       <c r="G11" t="str">
-        <v>Wed Feb  9 18:48:28 2022</v>
+        <v>Wed Feb  9 15:59:23 2022</v>
       </c>
     </row>
     <row r="12">
@@ -576,7 +576,7 @@
         <v>1619.99401838</v>
       </c>
       <c r="G12" t="str">
-        <v>Wed Feb  9 18:48:28 2022</v>
+        <v>Wed Feb  9 15:59:24 2022</v>
       </c>
     </row>
     <row r="13">
@@ -599,7 +599,7 @@
         <v>1584.19377057</v>
       </c>
       <c r="G13" t="str">
-        <v>Wed Feb  9 18:48:28 2022</v>
+        <v>Wed Feb  9 15:59:24 2022</v>
       </c>
     </row>
     <row r="14">
@@ -622,7 +622,7 @@
         <v>1548.79337657</v>
       </c>
       <c r="G14" t="str">
-        <v>Wed Feb  9 18:48:29 2022</v>
+        <v>Wed Feb  9 15:59:24 2022</v>
       </c>
     </row>
     <row r="15">
@@ -645,7 +645,7 @@
         <v>1513.79219505</v>
       </c>
       <c r="G15" t="str">
-        <v>Wed Feb  9 18:48:29 2022</v>
+        <v>Wed Feb  9 15:59:24 2022</v>
       </c>
     </row>
     <row r="16">
@@ -668,7 +668,7 @@
         <v>1479.19144685</v>
       </c>
       <c r="G16" t="str">
-        <v>Wed Feb  9 18:48:29 2022</v>
+        <v>Wed Feb  9 15:59:24 2022</v>
       </c>
     </row>
     <row r="17">
@@ -691,7 +691,7 @@
         <v>1444.99106141</v>
       </c>
       <c r="G17" t="str">
-        <v>Wed Feb  9 18:48:29 2022</v>
+        <v>Wed Feb  9 15:59:24 2022</v>
       </c>
     </row>
     <row r="18">
@@ -714,7 +714,7 @@
         <v>1411.18983050</v>
       </c>
       <c r="G18" t="str">
-        <v>Wed Feb  9 18:48:29 2022</v>
+        <v>Wed Feb  9 15:59:25 2022</v>
       </c>
     </row>
     <row r="19">
@@ -737,7 +737,7 @@
         <v>1377.78978959</v>
       </c>
       <c r="G19" t="str">
-        <v>Wed Feb  9 18:48:29 2022</v>
+        <v>Wed Feb  9 15:59:25 2022</v>
       </c>
     </row>
     <row r="20">
@@ -760,7 +760,7 @@
         <v>1344.78896855</v>
       </c>
       <c r="G20" t="str">
-        <v>Wed Feb  9 18:48:30 2022</v>
+        <v>Wed Feb  9 15:59:25 2022</v>
       </c>
     </row>
     <row r="21">
@@ -783,7 +783,7 @@
         <v>1312.18859438</v>
       </c>
       <c r="G21" t="str">
-        <v>Wed Feb  9 18:48:30 2022</v>
+        <v>Wed Feb  9 15:59:25 2022</v>
       </c>
     </row>
     <row r="22">
@@ -806,7 +806,7 @@
         <v>1279.98879846</v>
       </c>
       <c r="G22" t="str">
-        <v>Wed Feb  9 18:48:30 2022</v>
+        <v>Wed Feb  9 15:59:25 2022</v>
       </c>
     </row>
     <row r="23">
@@ -829,7 +829,7 @@
         <v>1248.18875675</v>
       </c>
       <c r="G23" t="str">
-        <v>Wed Feb  9 18:48:30 2022</v>
+        <v>Wed Feb  9 15:59:25 2022</v>
       </c>
     </row>
     <row r="24">
@@ -852,7 +852,7 @@
         <v>1216.78807220</v>
       </c>
       <c r="G24" t="str">
-        <v>Wed Feb  9 18:48:30 2022</v>
+        <v>Wed Feb  9 15:59:25 2022</v>
       </c>
     </row>
     <row r="25">
@@ -875,7 +875,7 @@
         <v>1185.78796248</v>
       </c>
       <c r="G25" t="str">
-        <v>Wed Feb  9 18:48:30 2022</v>
+        <v>Wed Feb  9 15:59:26 2022</v>
       </c>
     </row>
     <row r="26">
@@ -898,7 +898,7 @@
         <v>1155.18751832</v>
       </c>
       <c r="G26" t="str">
-        <v>Wed Feb  9 18:48:31 2022</v>
+        <v>Wed Feb  9 15:59:26 2022</v>
       </c>
     </row>
     <row r="27">
@@ -921,7 +921,7 @@
         <v>1124.98745103</v>
       </c>
       <c r="G27" t="str">
-        <v>Wed Feb  9 18:48:31 2022</v>
+        <v>Wed Feb  9 15:59:26 2022</v>
       </c>
     </row>
     <row r="28">
@@ -944,7 +944,7 @@
         <v>1095.18765844</v>
       </c>
       <c r="G28" t="str">
-        <v>Wed Feb  9 18:48:31 2022</v>
+        <v>Wed Feb  9 15:59:26 2022</v>
       </c>
     </row>
     <row r="29">
@@ -967,7 +967,7 @@
         <v>1065.78734575</v>
       </c>
       <c r="G29" t="str">
-        <v>Wed Feb  9 18:48:31 2022</v>
+        <v>Wed Feb  9 15:59:26 2022</v>
       </c>
     </row>
     <row r="30">
@@ -990,7 +990,7 @@
         <v>1036.78727207</v>
       </c>
       <c r="G30" t="str">
-        <v>Wed Feb  9 18:48:31 2022</v>
+        <v>Wed Feb  9 15:59:27 2022</v>
       </c>
     </row>
     <row r="31">
@@ -1013,7 +1013,7 @@
         <v>1008.18749517</v>
       </c>
       <c r="G31" t="str">
-        <v>Wed Feb  9 18:48:32 2022</v>
+        <v>Wed Feb  9 15:59:27 2022</v>
       </c>
     </row>
     <row r="32">
@@ -1036,7 +1036,7 @@
         <v>979.98748274</v>
       </c>
       <c r="G32" t="str">
-        <v>Wed Feb  9 18:48:32 2022</v>
+        <v>Wed Feb  9 15:59:27 2022</v>
       </c>
     </row>
     <row r="33">
@@ -1059,7 +1059,7 @@
         <v>952.18719783</v>
       </c>
       <c r="G33" t="str">
-        <v>Wed Feb  9 18:48:32 2022</v>
+        <v>Wed Feb  9 15:59:27 2022</v>
       </c>
     </row>
     <row r="34">
@@ -1082,7 +1082,7 @@
         <v>924.78705903</v>
       </c>
       <c r="G34" t="str">
-        <v>Wed Feb  9 18:48:32 2022</v>
+        <v>Wed Feb  9 15:59:27 2022</v>
       </c>
     </row>
     <row r="35">
@@ -1105,7 +1105,7 @@
         <v>897.78697605</v>
       </c>
       <c r="G35" t="str">
-        <v>Wed Feb  9 18:48:32 2022</v>
+        <v>Wed Feb  9 15:59:27 2022</v>
       </c>
     </row>
     <row r="36">
@@ -1128,7 +1128,7 @@
         <v>871.18734353</v>
       </c>
       <c r="G36" t="str">
-        <v>Wed Feb  9 18:48:33 2022</v>
+        <v>Wed Feb  9 15:59:27 2022</v>
       </c>
     </row>
     <row r="37">
@@ -1151,7 +1151,7 @@
         <v>844.98725536</v>
       </c>
       <c r="G37" t="str">
-        <v>Wed Feb  9 18:48:33 2022</v>
+        <v>Wed Feb  9 15:59:28 2022</v>
       </c>
     </row>
     <row r="38">
@@ -1174,7 +1174,7 @@
         <v>819.18725949</v>
       </c>
       <c r="G38" t="str">
-        <v>Wed Feb  9 18:48:33 2022</v>
+        <v>Wed Feb  9 15:59:28 2022</v>
       </c>
     </row>
     <row r="39">
@@ -1197,7 +1197,7 @@
         <v>793.78753932</v>
       </c>
       <c r="G39" t="str">
-        <v>Wed Feb  9 18:48:33 2022</v>
+        <v>Wed Feb  9 15:59:28 2022</v>
       </c>
     </row>
     <row r="40">
@@ -1220,7 +1220,7 @@
         <v>768.78720077</v>
       </c>
       <c r="G40" t="str">
-        <v>Wed Feb  9 18:48:33 2022</v>
+        <v>Wed Feb  9 15:59:28 2022</v>
       </c>
     </row>
     <row r="41">
@@ -1243,7 +1243,7 @@
         <v>744.18754792</v>
       </c>
       <c r="G41" t="str">
-        <v>Wed Feb  9 18:48:33 2022</v>
+        <v>Wed Feb  9 15:59:28 2022</v>
       </c>
     </row>
     <row r="42">
@@ -1266,7 +1266,7 @@
         <v>719.98731305</v>
       </c>
       <c r="G42" t="str">
-        <v>Wed Feb  9 18:48:34 2022</v>
+        <v>Wed Feb  9 15:59:28 2022</v>
       </c>
     </row>
     <row r="43">
@@ -1289,7 +1289,7 @@
         <v>696.18741243</v>
       </c>
       <c r="G43" t="str">
-        <v>Wed Feb  9 18:48:34 2022</v>
+        <v>Wed Feb  9 15:59:29 2022</v>
       </c>
     </row>
     <row r="44">
@@ -1312,7 +1312,7 @@
         <v>672.78716113</v>
       </c>
       <c r="G44" t="str">
-        <v>Wed Feb  9 18:48:34 2022</v>
+        <v>Wed Feb  9 15:59:29 2022</v>
       </c>
     </row>
     <row r="45">
@@ -1335,7 +1335,7 @@
         <v>649.78725924</v>
       </c>
       <c r="G45" t="str">
-        <v>Wed Feb  9 18:48:34 2022</v>
+        <v>Wed Feb  9 15:59:29 2022</v>
       </c>
     </row>
     <row r="46">
@@ -1358,7 +1358,7 @@
         <v>627.18765836</v>
       </c>
       <c r="G46" t="str">
-        <v>Wed Feb  9 18:48:34 2022</v>
+        <v>Wed Feb  9 15:59:29 2022</v>
       </c>
     </row>
     <row r="47">
@@ -1381,7 +1381,7 @@
         <v>604.98772400</v>
       </c>
       <c r="G47" t="str">
-        <v>Wed Feb  9 18:48:34 2022</v>
+        <v>Wed Feb  9 15:59:29 2022</v>
       </c>
     </row>
     <row r="48">
@@ -1404,7 +1404,7 @@
         <v>583.18759636</v>
       </c>
       <c r="G48" t="str">
-        <v>Wed Feb  9 18:48:35 2022</v>
+        <v>Wed Feb  9 15:59:29 2022</v>
       </c>
     </row>
     <row r="49">
@@ -1427,7 +1427,7 @@
         <v>561.78752751</v>
       </c>
       <c r="G49" t="str">
-        <v>Wed Feb  9 18:48:35 2022</v>
+        <v>Wed Feb  9 15:59:30 2022</v>
       </c>
     </row>
     <row r="50">
@@ -1450,7 +1450,7 @@
         <v>540.78790973</v>
       </c>
       <c r="G50" t="str">
-        <v>Wed Feb  9 18:48:35 2022</v>
+        <v>Wed Feb  9 15:59:30 2022</v>
       </c>
     </row>
     <row r="51">
@@ -1473,7 +1473,7 @@
         <v>520.18821667</v>
       </c>
       <c r="G51" t="str">
-        <v>Wed Feb  9 18:48:35 2022</v>
+        <v>Wed Feb  9 15:59:30 2022</v>
       </c>
     </row>
     <row r="52">
@@ -1496,7 +1496,7 @@
         <v>499.98826784</v>
       </c>
       <c r="G52" t="str">
-        <v>Wed Feb  9 18:48:35 2022</v>
+        <v>Wed Feb  9 15:59:30 2022</v>
       </c>
     </row>
     <row r="53">
@@ -1519,7 +1519,7 @@
         <v>480.18873244</v>
       </c>
       <c r="G53" t="str">
-        <v>Wed Feb  9 18:48:35 2022</v>
+        <v>Wed Feb  9 15:59:30 2022</v>
       </c>
     </row>
     <row r="54">
@@ -1542,7 +1542,7 @@
         <v>460.78910765</v>
       </c>
       <c r="G54" t="str">
-        <v>Wed Feb  9 18:48:36 2022</v>
+        <v>Wed Feb  9 15:59:30 2022</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>441.78939037</v>
       </c>
       <c r="G55" t="str">
-        <v>Wed Feb  9 18:48:36 2022</v>
+        <v>Wed Feb  9 15:59:31 2022</v>
       </c>
     </row>
     <row r="56">
@@ -1588,7 +1588,7 @@
         <v>423.18961525</v>
       </c>
       <c r="G56" t="str">
-        <v>Wed Feb  9 18:48:36 2022</v>
+        <v>Wed Feb  9 15:59:31 2022</v>
       </c>
     </row>
     <row r="57">
@@ -1611,7 +1611,7 @@
         <v>404.98992266</v>
       </c>
       <c r="G57" t="str">
-        <v>Wed Feb  9 18:48:36 2022</v>
+        <v>Wed Feb  9 15:59:31 2022</v>
       </c>
     </row>
     <row r="58">
@@ -1634,7 +1634,7 @@
         <v>387.19021056</v>
       </c>
       <c r="G58" t="str">
-        <v>Wed Feb  9 18:48:36 2022</v>
+        <v>Wed Feb  9 15:59:31 2022</v>
       </c>
     </row>
     <row r="59">
@@ -1657,7 +1657,7 @@
         <v>369.79026969</v>
       </c>
       <c r="G59" t="str">
-        <v>Wed Feb  9 18:48:36 2022</v>
+        <v>Wed Feb  9 15:59:31 2022</v>
       </c>
     </row>
     <row r="60">
@@ -1680,7 +1680,7 @@
         <v>352.79064120</v>
       </c>
       <c r="G60" t="str">
-        <v>Wed Feb  9 18:48:37 2022</v>
+        <v>Wed Feb  9 15:59:31 2022</v>
       </c>
     </row>
     <row r="61">
@@ -1703,7 +1703,7 @@
         <v>336.19078316</v>
       </c>
       <c r="G61" t="str">
-        <v>Wed Feb  9 18:48:37 2022</v>
+        <v>Wed Feb  9 15:59:32 2022</v>
       </c>
     </row>
     <row r="62">
@@ -1726,7 +1726,7 @@
         <v>319.99109409</v>
       </c>
       <c r="G62" t="str">
-        <v>Wed Feb  9 18:48:37 2022</v>
+        <v>Wed Feb  9 15:59:32 2022</v>
       </c>
     </row>
     <row r="63">
@@ -1749,7 +1749,7 @@
         <v>304.19153382</v>
       </c>
       <c r="G63" t="str">
-        <v>Wed Feb  9 18:48:37 2022</v>
+        <v>Wed Feb  9 15:59:32 2022</v>
       </c>
     </row>
     <row r="64">
@@ -1772,7 +1772,7 @@
         <v>288.79183742</v>
       </c>
       <c r="G64" t="str">
-        <v>Wed Feb  9 18:48:37 2022</v>
+        <v>Wed Feb  9 15:59:32 2022</v>
       </c>
     </row>
     <row r="65">
@@ -1795,7 +1795,7 @@
         <v>273.79198938</v>
       </c>
       <c r="G65" t="str">
-        <v>Wed Feb  9 18:48:37 2022</v>
+        <v>Wed Feb  9 15:59:32 2022</v>
       </c>
     </row>
     <row r="66">
@@ -1818,7 +1818,7 @@
         <v>259.19230534</v>
       </c>
       <c r="G66" t="str">
-        <v>Wed Feb  9 18:48:38 2022</v>
+        <v>Wed Feb  9 15:59:32 2022</v>
       </c>
     </row>
     <row r="67">
@@ -1841,7 +1841,7 @@
         <v>244.99271409</v>
       </c>
       <c r="G67" t="str">
-        <v>Wed Feb  9 18:48:38 2022</v>
+        <v>Wed Feb  9 15:59:33 2022</v>
       </c>
     </row>
     <row r="68">
@@ -1864,7 +1864,7 @@
         <v>231.19300948</v>
       </c>
       <c r="G68" t="str">
-        <v>Wed Feb  9 18:48:38 2022</v>
+        <v>Wed Feb  9 15:59:33 2022</v>
       </c>
     </row>
     <row r="69">
@@ -1887,7 +1887,7 @@
         <v>217.79329384</v>
       </c>
       <c r="G69" t="str">
-        <v>Wed Feb  9 18:48:38 2022</v>
+        <v>Wed Feb  9 15:59:33 2022</v>
       </c>
     </row>
     <row r="70">
@@ -1910,7 +1910,7 @@
         <v>204.79364772</v>
       </c>
       <c r="G70" t="str">
-        <v>Wed Feb  9 18:48:38 2022</v>
+        <v>Wed Feb  9 15:59:33 2022</v>
       </c>
     </row>
     <row r="71">
@@ -1933,7 +1933,7 @@
         <v>192.19392334</v>
       </c>
       <c r="G71" t="str">
-        <v>Wed Feb  9 18:48:38 2022</v>
+        <v>Wed Feb  9 15:59:33 2022</v>
       </c>
     </row>
     <row r="72">
@@ -1956,7 +1956,7 @@
         <v>179.99422186</v>
       </c>
       <c r="G72" t="str">
-        <v>Wed Feb  9 18:48:39 2022</v>
+        <v>Wed Feb  9 15:59:33 2022</v>
       </c>
     </row>
     <row r="73">
@@ -1979,7 +1979,7 @@
         <v>168.19452065</v>
       </c>
       <c r="G73" t="str">
-        <v>Wed Feb  9 18:48:39 2022</v>
+        <v>Wed Feb  9 15:59:34 2022</v>
       </c>
     </row>
     <row r="74">
@@ -2002,7 +2002,7 @@
         <v>156.79480063</v>
       </c>
       <c r="G74" t="str">
-        <v>Wed Feb  9 18:48:39 2022</v>
+        <v>Wed Feb  9 15:59:34 2022</v>
       </c>
     </row>
     <row r="75">
@@ -2025,7 +2025,7 @@
         <v>145.79501818</v>
       </c>
       <c r="G75" t="str">
-        <v>Wed Feb  9 18:48:39 2022</v>
+        <v>Wed Feb  9 15:59:34 2022</v>
       </c>
     </row>
     <row r="76">
@@ -2048,7 +2048,7 @@
         <v>135.19528298</v>
       </c>
       <c r="G76" t="str">
-        <v>Wed Feb  9 18:48:39 2022</v>
+        <v>Wed Feb  9 15:59:34 2022</v>
       </c>
     </row>
     <row r="77">
@@ -2071,7 +2071,7 @@
         <v>124.99561005</v>
       </c>
       <c r="G77" t="str">
-        <v>Wed Feb  9 18:48:39 2022</v>
+        <v>Wed Feb  9 15:59:34 2022</v>
       </c>
     </row>
     <row r="78">
@@ -2094,7 +2094,7 @@
         <v>115.19595422</v>
       </c>
       <c r="G78" t="str">
-        <v>Wed Feb  9 18:48:40 2022</v>
+        <v>Wed Feb  9 15:59:34 2022</v>
       </c>
     </row>
     <row r="79">
@@ -2117,7 +2117,7 @@
         <v>105.79619475</v>
       </c>
       <c r="G79" t="str">
-        <v>Wed Feb  9 18:48:40 2022</v>
+        <v>Wed Feb  9 15:59:34 2022</v>
       </c>
     </row>
     <row r="80">
@@ -2140,7 +2140,7 @@
         <v>96.79642985</v>
       </c>
       <c r="G80" t="str">
-        <v>Wed Feb  9 18:48:40 2022</v>
+        <v>Wed Feb  9 15:59:35 2022</v>
       </c>
     </row>
     <row r="81">
@@ -2163,7 +2163,7 @@
         <v>88.19674463</v>
       </c>
       <c r="G81" t="str">
-        <v>Wed Feb  9 18:48:40 2022</v>
+        <v>Wed Feb  9 15:59:35 2022</v>
       </c>
     </row>
     <row r="82">
@@ -2186,7 +2186,7 @@
         <v>79.99700509</v>
       </c>
       <c r="G82" t="str">
-        <v>Wed Feb  9 18:48:40 2022</v>
+        <v>Wed Feb  9 15:59:35 2022</v>
       </c>
     </row>
     <row r="83">
@@ -2209,7 +2209,7 @@
         <v>144.39459418</v>
       </c>
       <c r="G83" t="str">
-        <v>Wed Feb  9 18:48:40 2022</v>
+        <v>Wed Feb  9 15:59:35 2022</v>
       </c>
     </row>
     <row r="84">
@@ -2232,7 +2232,7 @@
         <v>129.59501465</v>
       </c>
       <c r="G84" t="str">
-        <v>Wed Feb  9 18:48:41 2022</v>
+        <v>Wed Feb  9 15:59:35 2022</v>
       </c>
     </row>
     <row r="85">
@@ -2255,7 +2255,7 @@
         <v>115.59551319</v>
       </c>
       <c r="G85" t="str">
-        <v>Wed Feb  9 18:48:41 2022</v>
+        <v>Wed Feb  9 15:59:36 2022</v>
       </c>
     </row>
     <row r="86">
@@ -2278,7 +2278,7 @@
         <v>102.39600833</v>
       </c>
       <c r="G86" t="str">
-        <v>Wed Feb  9 18:48:41 2022</v>
+        <v>Wed Feb  9 15:59:36 2022</v>
       </c>
     </row>
     <row r="87">
@@ -2301,7 +2301,7 @@
         <v>89.99646609</v>
       </c>
       <c r="G87" t="str">
-        <v>Wed Feb  9 18:48:41 2022</v>
+        <v>Wed Feb  9 15:59:36 2022</v>
       </c>
     </row>
     <row r="88">
@@ -2324,7 +2324,7 @@
         <v>78.39691158</v>
       </c>
       <c r="G88" t="str">
-        <v>Wed Feb  9 18:48:41 2022</v>
+        <v>Wed Feb  9 15:59:36 2022</v>
       </c>
     </row>
     <row r="89">
@@ -2347,7 +2347,7 @@
         <v>67.59726663</v>
       </c>
       <c r="G89" t="str">
-        <v>Wed Feb  9 18:48:41 2022</v>
+        <v>Wed Feb  9 15:59:36 2022</v>
       </c>
     </row>
     <row r="90">
@@ -2370,7 +2370,7 @@
         <v>57.59767057</v>
       </c>
       <c r="G90" t="str">
-        <v>Wed Feb  9 18:48:42 2022</v>
+        <v>Wed Feb  9 15:59:36 2022</v>
       </c>
     </row>
     <row r="91">
@@ -2393,7 +2393,7 @@
         <v>48.39799784</v>
       </c>
       <c r="G91" t="str">
-        <v>Wed Feb  9 18:48:42 2022</v>
+        <v>Wed Feb  9 15:59:36 2022</v>
       </c>
     </row>
     <row r="92">
@@ -2416,7 +2416,7 @@
         <v>39.99833172</v>
       </c>
       <c r="G92" t="str">
-        <v>Wed Feb  9 18:48:42 2022</v>
+        <v>Wed Feb  9 15:59:37 2022</v>
       </c>
     </row>
     <row r="93">
@@ -2439,7 +2439,7 @@
         <v>48.59797304</v>
       </c>
       <c r="G93" t="str">
-        <v>Wed Feb  9 18:48:42 2022</v>
+        <v>Wed Feb  9 15:59:37 2022</v>
       </c>
     </row>
     <row r="94">
@@ -2462,7 +2462,7 @@
         <v>38.39837625</v>
       </c>
       <c r="G94" t="str">
-        <v>Wed Feb  9 18:48:42 2022</v>
+        <v>Wed Feb  9 15:59:37 2022</v>
       </c>
     </row>
     <row r="95">
@@ -2485,7 +2485,7 @@
         <v>29.39875682</v>
       </c>
       <c r="G95" t="str">
-        <v>Wed Feb  9 18:48:42 2022</v>
+        <v>Wed Feb  9 15:59:37 2022</v>
       </c>
     </row>
     <row r="96">
@@ -2508,7 +2508,7 @@
         <v>28.79874779</v>
       </c>
       <c r="G96" t="str">
-        <v>Wed Feb  9 18:48:43 2022</v>
+        <v>Wed Feb  9 15:59:37 2022</v>
       </c>
     </row>
     <row r="97">
@@ -2531,7 +2531,7 @@
         <v>19.99911761</v>
       </c>
       <c r="G97" t="str">
-        <v>Wed Feb  9 18:48:43 2022</v>
+        <v>Wed Feb  9 15:59:37 2022</v>
       </c>
     </row>
     <row r="98">
@@ -2554,7 +2554,7 @@
         <v>15.99929409</v>
       </c>
       <c r="G98" t="str">
-        <v>Wed Feb  9 18:48:43 2022</v>
+        <v>Wed Feb  9 15:59:38 2022</v>
       </c>
     </row>
     <row r="99">
@@ -2577,7 +2577,7 @@
         <v>12.59944410</v>
       </c>
       <c r="G99" t="str">
-        <v>Wed Feb  9 18:48:43 2022</v>
+        <v>Wed Feb  9 15:59:38 2022</v>
       </c>
     </row>
     <row r="100">
@@ -2600,7 +2600,7 @@
         <v>7.99963905</v>
       </c>
       <c r="G100" t="str">
-        <v>Wed Feb  9 18:48:43 2022</v>
+        <v>Wed Feb  9 15:59:38 2022</v>
       </c>
     </row>
     <row r="101">
@@ -2623,7 +2623,7 @@
         <v>3.99981953</v>
       </c>
       <c r="G101" t="str">
-        <v>Wed Feb  9 18:48:43 2022</v>
+        <v>Wed Feb  9 15:59:38 2022</v>
       </c>
     </row>
     <row r="102">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="str">
-        <v>Wed Feb  9 18:48:44 2022</v>
+        <v>Wed Feb  9 15:59:38 2022</v>
       </c>
     </row>
   </sheetData>

--- a/bondingCurve.xlsx
+++ b/bondingCurve.xlsx
@@ -354,22 +354,22 @@
         <v>9900000.00000000</v>
       </c>
       <c r="B3" t="str">
-        <v>1960200000.00000000</v>
+        <v>2450250000.00000000</v>
       </c>
       <c r="C3" t="str">
-        <v>39800000.00000000</v>
+        <v>49750000.00000000</v>
       </c>
       <c r="D3" t="str">
         <v>100000.00</v>
       </c>
       <c r="E3" t="str">
-        <v>39800000.00000000</v>
+        <v>49750000.00000000</v>
       </c>
       <c r="F3" t="str">
-        <v>1960.20000000</v>
+        <v>2450.25000000</v>
       </c>
       <c r="G3" t="str">
-        <v>Wed Feb  9 15:59:22 2022</v>
+        <v>Mon Feb 28 11:38:45 2022</v>
       </c>
     </row>
     <row r="4">
@@ -377,22 +377,22 @@
         <v>9800000.00000000</v>
       </c>
       <c r="B4" t="str">
-        <v>1920799980.00000000</v>
+        <v>2400999975.00000000</v>
       </c>
       <c r="C4" t="str">
-        <v>79200020.00000000</v>
+        <v>99000025.00000000</v>
       </c>
       <c r="D4" t="str">
         <v>100000.00</v>
       </c>
       <c r="E4" t="str">
-        <v>39400020.00000000</v>
+        <v>49250025.00000000</v>
       </c>
       <c r="F4" t="str">
-        <v>1920.79998000</v>
+        <v>2400.99997500</v>
       </c>
       <c r="G4" t="str">
-        <v>Wed Feb  9 15:59:22 2022</v>
+        <v>Mon Feb 28 11:38:45 2022</v>
       </c>
     </row>
     <row r="5">
@@ -400,22 +400,22 @@
         <v>9700000.00000000</v>
       </c>
       <c r="B5" t="str">
-        <v>1881798136.40610000</v>
+        <v>2352247670.50762500</v>
       </c>
       <c r="C5" t="str">
-        <v>118201863.59390000</v>
+        <v>147752329.49237500</v>
       </c>
       <c r="D5" t="str">
         <v>100000.00</v>
       </c>
       <c r="E5" t="str">
-        <v>39001843.59390000</v>
+        <v>48752304.49237500</v>
       </c>
       <c r="F5" t="str">
-        <v>1881.79813641</v>
+        <v>2352.24767051</v>
       </c>
       <c r="G5" t="str">
-        <v>Wed Feb  9 15:59:22 2022</v>
+        <v>Mon Feb 28 11:38:45 2022</v>
       </c>
     </row>
     <row r="6">
@@ -423,22 +423,22 @@
         <v>9600000.00000000</v>
       </c>
       <c r="B6" t="str">
-        <v>1843196811.23400167</v>
+        <v>2303996014.04250208</v>
       </c>
       <c r="C6" t="str">
-        <v>156803188.76599833</v>
+        <v>196003985.95749792</v>
       </c>
       <c r="D6" t="str">
         <v>100000.00</v>
       </c>
       <c r="E6" t="str">
-        <v>38601325.17209833</v>
+        <v>48251656.46512292</v>
       </c>
       <c r="F6" t="str">
-        <v>1843.19681124</v>
+        <v>2303.99601405</v>
       </c>
       <c r="G6" t="str">
-        <v>Wed Feb  9 15:59:23 2022</v>
+        <v>Mon Feb 28 11:38:46 2022</v>
       </c>
     </row>
     <row r="7">
@@ -446,22 +446,22 @@
         <v>9500000.00000000</v>
       </c>
       <c r="B7" t="str">
-        <v>1804996557.32117698</v>
+        <v>2256245696.65147122</v>
       </c>
       <c r="C7" t="str">
-        <v>195003442.67882302</v>
+        <v>243754303.34852878</v>
       </c>
       <c r="D7" t="str">
         <v>100000.00</v>
       </c>
       <c r="E7" t="str">
-        <v>38200253.91282469</v>
+        <v>47750317.39103086</v>
       </c>
       <c r="F7" t="str">
-        <v>1804.99655733</v>
+        <v>2256.24569666</v>
       </c>
       <c r="G7" t="str">
-        <v>Wed Feb  9 15:59:23 2022</v>
+        <v>Mon Feb 28 11:38:46 2022</v>
       </c>
     </row>
     <row r="8">
@@ -469,22 +469,22 @@
         <v>9400000.00000000</v>
       </c>
       <c r="B8" t="str">
-        <v>1767196319.41775689</v>
+        <v>2208995399.27219610</v>
       </c>
       <c r="C8" t="str">
-        <v>232803680.58224311</v>
+        <v>291004600.72780390</v>
       </c>
       <c r="D8" t="str">
         <v>100000.00</v>
       </c>
       <c r="E8" t="str">
-        <v>37800237.90342009</v>
+        <v>47250297.37927512</v>
       </c>
       <c r="F8" t="str">
-        <v>1767.19631942</v>
+        <v>2208.99539928</v>
       </c>
       <c r="G8" t="str">
-        <v>Wed Feb  9 15:59:23 2022</v>
+        <v>Mon Feb 28 11:38:46 2022</v>
       </c>
     </row>
     <row r="9">
@@ -492,22 +492,22 @@
         <v>9300000.00000000</v>
       </c>
       <c r="B9" t="str">
-        <v>1729795376.51359948</v>
+        <v>2162244220.64199934</v>
       </c>
       <c r="C9" t="str">
-        <v>270204623.48640052</v>
+        <v>337755779.35800066</v>
       </c>
       <c r="D9" t="str">
         <v>100000.00</v>
       </c>
       <c r="E9" t="str">
-        <v>37400942.90415741</v>
+        <v>46751178.63019676</v>
       </c>
       <c r="F9" t="str">
-        <v>1729.79537652</v>
+        <v>2162.24422065</v>
       </c>
       <c r="G9" t="str">
-        <v>Wed Feb  9 15:59:23 2022</v>
+        <v>Mon Feb 28 11:38:46 2022</v>
       </c>
     </row>
     <row r="10">
@@ -515,22 +515,22 @@
         <v>9200000.00000000</v>
       </c>
       <c r="B10" t="str">
-        <v>1692795053.40997358</v>
+        <v>2115993816.76246697</v>
       </c>
       <c r="C10" t="str">
-        <v>307204946.59002642</v>
+        <v>384006183.23753303</v>
       </c>
       <c r="D10" t="str">
         <v>100000.00</v>
       </c>
       <c r="E10" t="str">
-        <v>37000323.10362590</v>
+        <v>46250403.87953237</v>
       </c>
       <c r="F10" t="str">
-        <v>1692.79505341</v>
+        <v>2115.99381677</v>
       </c>
       <c r="G10" t="str">
-        <v>Wed Feb  9 15:59:23 2022</v>
+        <v>Mon Feb 28 11:38:46 2022</v>
       </c>
     </row>
     <row r="11">
@@ -538,22 +538,22 @@
         <v>9100000.00000000</v>
       </c>
       <c r="B11" t="str">
-        <v>1656195131.56019654</v>
+        <v>2070243914.45024567</v>
       </c>
       <c r="C11" t="str">
-        <v>343804868.43980346</v>
+        <v>429756085.54975433</v>
       </c>
       <c r="D11" t="str">
         <v>100000.00</v>
       </c>
       <c r="E11" t="str">
-        <v>36599921.84977704</v>
+        <v>45749902.31222130</v>
       </c>
       <c r="F11" t="str">
-        <v>1656.19513157</v>
+        <v>2070.24391446</v>
       </c>
       <c r="G11" t="str">
-        <v>Wed Feb  9 15:59:23 2022</v>
+        <v>Mon Feb 28 11:38:46 2022</v>
       </c>
     </row>
     <row r="12">
@@ -561,22 +561,22 @@
         <v>9000000.00000000</v>
       </c>
       <c r="B12" t="str">
-        <v>1619994018.37455376</v>
+        <v>2024992522.96819220</v>
       </c>
       <c r="C12" t="str">
-        <v>380005981.62544624</v>
+        <v>475007477.03180780</v>
       </c>
       <c r="D12" t="str">
         <v>100000.00</v>
       </c>
       <c r="E12" t="str">
-        <v>36201113.18564278</v>
+        <v>45251391.48205347</v>
       </c>
       <c r="F12" t="str">
-        <v>1619.99401838</v>
+        <v>2024.99252297</v>
       </c>
       <c r="G12" t="str">
-        <v>Wed Feb  9 15:59:24 2022</v>
+        <v>Mon Feb 28 11:38:47 2022</v>
       </c>
     </row>
     <row r="13">
@@ -584,22 +584,22 @@
         <v>8900000.00000000</v>
       </c>
       <c r="B13" t="str">
-        <v>1584193770.56249449</v>
+        <v>1980242213.20311812</v>
       </c>
       <c r="C13" t="str">
-        <v>415806229.43750551</v>
+        <v>519757786.79688188</v>
       </c>
       <c r="D13" t="str">
         <v>100000.00</v>
       </c>
       <c r="E13" t="str">
-        <v>35800247.81205927</v>
+        <v>44750309.76507408</v>
       </c>
       <c r="F13" t="str">
-        <v>1584.19377057</v>
+        <v>1980.24221321</v>
       </c>
       <c r="G13" t="str">
-        <v>Wed Feb  9 15:59:24 2022</v>
+        <v>Mon Feb 28 11:38:47 2022</v>
       </c>
     </row>
     <row r="14">
@@ -607,22 +607,22 @@
         <v>8800000.00000000</v>
       </c>
       <c r="B14" t="str">
-        <v>1548793376.56550498</v>
+        <v>1935991720.70688124</v>
       </c>
       <c r="C14" t="str">
-        <v>451206623.43449502</v>
+        <v>564008279.29311876</v>
       </c>
       <c r="D14" t="str">
         <v>100000.00</v>
       </c>
       <c r="E14" t="str">
-        <v>35400393.99698951</v>
+        <v>44250492.49623688</v>
       </c>
       <c r="F14" t="str">
-        <v>1548.79337657</v>
+        <v>1935.99172071</v>
       </c>
       <c r="G14" t="str">
-        <v>Wed Feb  9 15:59:24 2022</v>
+        <v>Mon Feb 28 11:38:47 2022</v>
       </c>
     </row>
     <row r="15">
@@ -630,22 +630,22 @@
         <v>8700000.00000000</v>
       </c>
       <c r="B15" t="str">
-        <v>1513792195.04850113</v>
+        <v>1892240243.81062643</v>
       </c>
       <c r="C15" t="str">
-        <v>486207804.95149887</v>
+        <v>607759756.18937357</v>
       </c>
       <c r="D15" t="str">
         <v>100000.00</v>
       </c>
       <c r="E15" t="str">
-        <v>35001181.51700385</v>
+        <v>43751476.89625481</v>
       </c>
       <c r="F15" t="str">
-        <v>1513.79219505</v>
+        <v>1892.24024382</v>
       </c>
       <c r="G15" t="str">
-        <v>Wed Feb  9 15:59:24 2022</v>
+        <v>Mon Feb 28 11:38:47 2022</v>
       </c>
     </row>
     <row r="16">
@@ -653,22 +653,22 @@
         <v>8600000.00000000</v>
       </c>
       <c r="B16" t="str">
-        <v>1479191446.84627753</v>
+        <v>1848989308.55784694</v>
       </c>
       <c r="C16" t="str">
-        <v>520808553.15372247</v>
+        <v>651010691.44215306</v>
       </c>
       <c r="D16" t="str">
         <v>100000.00</v>
       </c>
       <c r="E16" t="str">
-        <v>34600748.20222360</v>
+        <v>43250935.25277949</v>
       </c>
       <c r="F16" t="str">
-        <v>1479.19144685</v>
+        <v>1848.98930856</v>
       </c>
       <c r="G16" t="str">
-        <v>Wed Feb  9 15:59:24 2022</v>
+        <v>Mon Feb 28 11:38:47 2022</v>
       </c>
     </row>
     <row r="17">
@@ -676,22 +676,22 @@
         <v>8500000.00000000</v>
       </c>
       <c r="B17" t="str">
-        <v>1444991061.40374474</v>
+        <v>1806238826.75468096</v>
       </c>
       <c r="C17" t="str">
-        <v>555008938.59625526</v>
+        <v>693761173.24531904</v>
       </c>
       <c r="D17" t="str">
         <v>100000.00</v>
       </c>
       <c r="E17" t="str">
-        <v>34200385.44253279</v>
+        <v>42750481.80316598</v>
       </c>
       <c r="F17" t="str">
-        <v>1444.99106141</v>
+        <v>1806.23882676</v>
       </c>
       <c r="G17" t="str">
-        <v>Wed Feb  9 15:59:24 2022</v>
+        <v>Mon Feb 28 11:38:48 2022</v>
       </c>
     </row>
     <row r="18">
@@ -699,22 +699,22 @@
         <v>8400000.00000000</v>
       </c>
       <c r="B18" t="str">
-        <v>1411189830.49538834</v>
+        <v>1763987288.11923546</v>
       </c>
       <c r="C18" t="str">
-        <v>588810169.50461166</v>
+        <v>736012711.88076454</v>
       </c>
       <c r="D18" t="str">
         <v>100000.00</v>
       </c>
       <c r="E18" t="str">
-        <v>33801230.90835640</v>
+        <v>42251538.63544550</v>
       </c>
       <c r="F18" t="str">
-        <v>1411.18983050</v>
+        <v>1763.98728812</v>
       </c>
       <c r="G18" t="str">
-        <v>Wed Feb  9 15:59:25 2022</v>
+        <v>Mon Feb 28 11:38:48 2022</v>
       </c>
     </row>
     <row r="19">
@@ -722,22 +722,22 @@
         <v>8300000.00000000</v>
       </c>
       <c r="B19" t="str">
-        <v>1377789789.58722348</v>
+        <v>1722237236.98402939</v>
       </c>
       <c r="C19" t="str">
-        <v>622210210.41277652</v>
+        <v>777762763.01597061</v>
       </c>
       <c r="D19" t="str">
         <v>100000.00</v>
       </c>
       <c r="E19" t="str">
-        <v>33400040.90816486</v>
+        <v>41750051.13520607</v>
       </c>
       <c r="F19" t="str">
-        <v>1377.78978959</v>
+        <v>1722.23723699</v>
       </c>
       <c r="G19" t="str">
-        <v>Wed Feb  9 15:59:25 2022</v>
+        <v>Mon Feb 28 11:38:48 2022</v>
       </c>
     </row>
     <row r="20">
@@ -745,22 +745,22 @@
         <v>8200000.00000000</v>
       </c>
       <c r="B20" t="str">
-        <v>1344788968.54703030</v>
+        <v>1680986210.68378791</v>
       </c>
       <c r="C20" t="str">
-        <v>655211031.45296970</v>
+        <v>819013789.31621209</v>
       </c>
       <c r="D20" t="str">
         <v>100000.00</v>
       </c>
       <c r="E20" t="str">
-        <v>33000821.04019318</v>
+        <v>41251026.30024148</v>
       </c>
       <c r="F20" t="str">
-        <v>1344.78896855</v>
+        <v>1680.98621069</v>
       </c>
       <c r="G20" t="str">
-        <v>Wed Feb  9 15:59:25 2022</v>
+        <v>Mon Feb 28 11:38:48 2022</v>
       </c>
     </row>
     <row r="21">
@@ -768,22 +768,22 @@
         <v>8100000.00000000</v>
       </c>
       <c r="B21" t="str">
-        <v>1312188594.37151319</v>
+        <v>1640235742.96439152</v>
       </c>
       <c r="C21" t="str">
-        <v>687811405.62848681</v>
+        <v>859764257.03560848</v>
       </c>
       <c r="D21" t="str">
         <v>100000.00</v>
       </c>
       <c r="E21" t="str">
-        <v>32600374.17551711</v>
+        <v>40750467.71939639</v>
       </c>
       <c r="F21" t="str">
-        <v>1312.18859438</v>
+        <v>1640.23574297</v>
       </c>
       <c r="G21" t="str">
-        <v>Wed Feb  9 15:59:25 2022</v>
+        <v>Mon Feb 28 11:38:48 2022</v>
       </c>
     </row>
     <row r="22">
@@ -791,22 +791,22 @@
         <v>8000000.00000000</v>
       </c>
       <c r="B22" t="str">
-        <v>1279988798.45423062</v>
+        <v>1599985998.06778831</v>
       </c>
       <c r="C22" t="str">
-        <v>720011201.54576938</v>
+        <v>900014001.93221169</v>
       </c>
       <c r="D22" t="str">
         <v>100000.00</v>
       </c>
       <c r="E22" t="str">
-        <v>32199795.91728257</v>
+        <v>40249744.89660321</v>
       </c>
       <c r="F22" t="str">
-        <v>1279.98879846</v>
+        <v>1599.98599807</v>
       </c>
       <c r="G22" t="str">
-        <v>Wed Feb  9 15:59:25 2022</v>
+        <v>Mon Feb 28 11:38:48 2022</v>
       </c>
     </row>
     <row r="23">
@@ -814,22 +814,22 @@
         <v>7900000.00000000</v>
       </c>
       <c r="B23" t="str">
-        <v>1248188756.74543371</v>
+        <v>1560235945.93179217</v>
       </c>
       <c r="C23" t="str">
-        <v>751811243.25456629</v>
+        <v>939764054.06820783</v>
       </c>
       <c r="D23" t="str">
         <v>100000.00</v>
       </c>
       <c r="E23" t="str">
-        <v>31800041.70879691</v>
+        <v>39750052.13599614</v>
       </c>
       <c r="F23" t="str">
-        <v>1248.18875675</v>
+        <v>1560.23594594</v>
       </c>
       <c r="G23" t="str">
-        <v>Wed Feb  9 15:59:25 2022</v>
+        <v>Mon Feb 28 11:38:49 2022</v>
       </c>
     </row>
     <row r="24">
@@ -837,22 +837,22 @@
         <v>7800000.00000000</v>
       </c>
       <c r="B24" t="str">
-        <v>1216788072.19198883</v>
+        <v>1520985090.23998607</v>
       </c>
       <c r="C24" t="str">
-        <v>783211927.80801117</v>
+        <v>979014909.76001393</v>
       </c>
       <c r="D24" t="str">
         <v>100000.00</v>
       </c>
       <c r="E24" t="str">
-        <v>31400684.55344488</v>
+        <v>39250855.69180610</v>
       </c>
       <c r="F24" t="str">
-        <v>1216.78807220</v>
+        <v>1520.98509024</v>
       </c>
       <c r="G24" t="str">
-        <v>Wed Feb  9 15:59:25 2022</v>
+        <v>Mon Feb 28 11:38:49 2022</v>
       </c>
     </row>
     <row r="25">
@@ -860,22 +860,22 @@
         <v>7700000.00000000</v>
       </c>
       <c r="B25" t="str">
-        <v>1185787962.47675353</v>
+        <v>1482234953.09594194</v>
       </c>
       <c r="C25" t="str">
-        <v>814212037.52324647</v>
+        <v>1017765046.90405806</v>
       </c>
       <c r="D25" t="str">
         <v>100000.00</v>
       </c>
       <c r="E25" t="str">
-        <v>31000109.71523530</v>
+        <v>38750137.14404413</v>
       </c>
       <c r="F25" t="str">
-        <v>1185.78796248</v>
+        <v>1482.23495310</v>
       </c>
       <c r="G25" t="str">
-        <v>Wed Feb  9 15:59:26 2022</v>
+        <v>Mon Feb 28 11:38:49 2022</v>
       </c>
     </row>
     <row r="26">
@@ -883,22 +883,22 @@
         <v>7600000.00000000</v>
       </c>
       <c r="B26" t="str">
-        <v>1155187518.31707842</v>
+        <v>1443984397.89634806</v>
       </c>
       <c r="C26" t="str">
-        <v>844812481.68292158</v>
+        <v>1056015602.10365194</v>
       </c>
       <c r="D26" t="str">
         <v>100000.00</v>
       </c>
       <c r="E26" t="str">
-        <v>30600444.15967511</v>
+        <v>38250555.19959388</v>
       </c>
       <c r="F26" t="str">
-        <v>1155.18751832</v>
+        <v>1443.98439790</v>
       </c>
       <c r="G26" t="str">
-        <v>Wed Feb  9 15:59:26 2022</v>
+        <v>Mon Feb 28 11:38:49 2022</v>
       </c>
     </row>
     <row r="27">
@@ -906,22 +906,22 @@
         <v>7500000.00000000</v>
       </c>
       <c r="B27" t="str">
-        <v>1124987451.02571503</v>
+        <v>1406234313.78214383</v>
       </c>
       <c r="C27" t="str">
-        <v>875012548.97428497</v>
+        <v>1093765686.21785617</v>
       </c>
       <c r="D27" t="str">
         <v>100000.00</v>
       </c>
       <c r="E27" t="str">
-        <v>30200067.29136339</v>
+        <v>37750084.11420423</v>
       </c>
       <c r="F27" t="str">
-        <v>1124.98745103</v>
+        <v>1406.23431379</v>
       </c>
       <c r="G27" t="str">
-        <v>Wed Feb  9 15:59:26 2022</v>
+        <v>Mon Feb 28 11:38:49 2022</v>
       </c>
     </row>
     <row r="28">
@@ -929,22 +929,22 @@
         <v>7400000.00000000</v>
       </c>
       <c r="B28" t="str">
-        <v>1095187658.43549486</v>
+        <v>1368984573.04436862</v>
       </c>
       <c r="C28" t="str">
-        <v>904812341.56450514</v>
+        <v>1131015426.95563138</v>
       </c>
       <c r="D28" t="str">
         <v>100000.00</v>
       </c>
       <c r="E28" t="str">
-        <v>29799792.59022017</v>
+        <v>37249740.73777521</v>
       </c>
       <c r="F28" t="str">
-        <v>1095.18765844</v>
+        <v>1368.98457305</v>
       </c>
       <c r="G28" t="str">
-        <v>Wed Feb  9 15:59:26 2022</v>
+        <v>Mon Feb 28 11:38:50 2022</v>
       </c>
     </row>
     <row r="29">
@@ -952,22 +952,22 @@
         <v>7300000.00000000</v>
       </c>
       <c r="B29" t="str">
-        <v>1065787345.74479400</v>
+        <v>1332234182.18099254</v>
       </c>
       <c r="C29" t="str">
-        <v>934212654.25520600</v>
+        <v>1167765817.81900746</v>
       </c>
       <c r="D29" t="str">
         <v>100000.00</v>
       </c>
       <c r="E29" t="str">
-        <v>29400312.69070086</v>
+        <v>36750390.86337608</v>
       </c>
       <c r="F29" t="str">
-        <v>1065.78734575</v>
+        <v>1332.23418219</v>
       </c>
       <c r="G29" t="str">
-        <v>Wed Feb  9 15:59:26 2022</v>
+        <v>Mon Feb 28 11:38:50 2022</v>
       </c>
     </row>
     <row r="30">
@@ -975,22 +975,22 @@
         <v>7200000.00000000</v>
       </c>
       <c r="B30" t="str">
-        <v>1036787272.06707815</v>
+        <v>1295984090.08384773</v>
       </c>
       <c r="C30" t="str">
-        <v>963212727.93292185</v>
+        <v>1204015909.91615227</v>
       </c>
       <c r="D30" t="str">
         <v>100000.00</v>
       </c>
       <c r="E30" t="str">
-        <v>29000073.67771585</v>
+        <v>36250092.09714481</v>
       </c>
       <c r="F30" t="str">
-        <v>1036.78727207</v>
+        <v>1295.98409009</v>
       </c>
       <c r="G30" t="str">
-        <v>Wed Feb  9 15:59:27 2022</v>
+        <v>Mon Feb 28 11:38:50 2022</v>
       </c>
     </row>
     <row r="31">
@@ -998,22 +998,22 @@
         <v>7100000.00000000</v>
       </c>
       <c r="B31" t="str">
-        <v>1008187495.16710779</v>
+        <v>1260234368.95888479</v>
       </c>
       <c r="C31" t="str">
-        <v>991812504.83289221</v>
+        <v>1239765631.04111521</v>
       </c>
       <c r="D31" t="str">
         <v>100000.00</v>
       </c>
       <c r="E31" t="str">
-        <v>28599776.89997036</v>
+        <v>35749721.12496294</v>
       </c>
       <c r="F31" t="str">
-        <v>1008.18749517</v>
+        <v>1260.23436896</v>
       </c>
       <c r="G31" t="str">
-        <v>Wed Feb  9 15:59:27 2022</v>
+        <v>Mon Feb 28 11:38:50 2022</v>
       </c>
     </row>
     <row r="32">
@@ -1021,22 +1021,22 @@
         <v>7000000.00000000</v>
       </c>
       <c r="B32" t="str">
-        <v>979987482.73978861</v>
+        <v>1224984353.42473582</v>
       </c>
       <c r="C32" t="str">
-        <v>1020012517.26021139</v>
+        <v>1275015646.57526418</v>
       </c>
       <c r="D32" t="str">
         <v>100000.00</v>
       </c>
       <c r="E32" t="str">
-        <v>28200012.42731918</v>
+        <v>35250015.53414897</v>
       </c>
       <c r="F32" t="str">
-        <v>979.98748274</v>
+        <v>1224.98435343</v>
       </c>
       <c r="G32" t="str">
-        <v>Wed Feb  9 15:59:27 2022</v>
+        <v>Mon Feb 28 11:38:50 2022</v>
       </c>
     </row>
     <row r="33">
@@ -1044,22 +1044,22 @@
         <v>6900000.00000000</v>
       </c>
       <c r="B33" t="str">
-        <v>952187197.82942628</v>
+        <v>1190233997.28678291</v>
       </c>
       <c r="C33" t="str">
-        <v>1047812802.17057372</v>
+        <v>1309766002.71321709</v>
       </c>
       <c r="D33" t="str">
         <v>100000.00</v>
       </c>
       <c r="E33" t="str">
-        <v>27800284.91036233</v>
+        <v>34750356.13795291</v>
       </c>
       <c r="F33" t="str">
-        <v>952.18719783</v>
+        <v>1190.23399729</v>
       </c>
       <c r="G33" t="str">
-        <v>Wed Feb  9 15:59:27 2022</v>
+        <v>Mon Feb 28 11:38:50 2022</v>
       </c>
     </row>
     <row r="34">
@@ -1067,22 +1067,22 @@
         <v>6800000.00000000</v>
       </c>
       <c r="B34" t="str">
-        <v>924787059.02468670</v>
+        <v>1155983823.78085844</v>
       </c>
       <c r="C34" t="str">
-        <v>1075212940.97531330</v>
+        <v>1344016176.21914156</v>
       </c>
       <c r="D34" t="str">
         <v>100000.00</v>
       </c>
       <c r="E34" t="str">
-        <v>27400138.80473958</v>
+        <v>34250173.50592447</v>
       </c>
       <c r="F34" t="str">
-        <v>924.78705903</v>
+        <v>1155.98382379</v>
       </c>
       <c r="G34" t="str">
-        <v>Wed Feb  9 15:59:27 2022</v>
+        <v>Mon Feb 28 11:38:51 2022</v>
       </c>
     </row>
     <row r="35">
@@ -1090,22 +1090,22 @@
         <v>6700000.00000000</v>
       </c>
       <c r="B35" t="str">
-        <v>897786976.04940194</v>
+        <v>1122233720.06175249</v>
       </c>
       <c r="C35" t="str">
-        <v>1102213023.95059806</v>
+        <v>1377766279.93824751</v>
       </c>
       <c r="D35" t="str">
         <v>100000.00</v>
       </c>
       <c r="E35" t="str">
-        <v>27000082.97528476</v>
+        <v>33750103.71910595</v>
       </c>
       <c r="F35" t="str">
-        <v>897.78697605</v>
+        <v>1122.23372007</v>
       </c>
       <c r="G35" t="str">
-        <v>Wed Feb  9 15:59:27 2022</v>
+        <v>Mon Feb 28 11:38:51 2022</v>
       </c>
     </row>
     <row r="36">
@@ -1113,22 +1113,22 @@
         <v>6600000.00000000</v>
       </c>
       <c r="B36" t="str">
-        <v>871187343.52301025</v>
+        <v>1088984179.40376288</v>
       </c>
       <c r="C36" t="str">
-        <v>1128812656.47698975</v>
+        <v>1411015820.59623712</v>
       </c>
       <c r="D36" t="str">
         <v>100000.00</v>
       </c>
       <c r="E36" t="str">
-        <v>26599632.52639169</v>
+        <v>33249540.65798961</v>
       </c>
       <c r="F36" t="str">
-        <v>871.18734353</v>
+        <v>1088.98417941</v>
       </c>
       <c r="G36" t="str">
-        <v>Wed Feb  9 15:59:27 2022</v>
+        <v>Mon Feb 28 11:38:51 2022</v>
       </c>
     </row>
     <row r="37">
@@ -1136,22 +1136,22 @@
         <v>6500000.00000000</v>
       </c>
       <c r="B37" t="str">
-        <v>844987255.35389923</v>
+        <v>1056234069.19237411</v>
       </c>
       <c r="C37" t="str">
-        <v>1155012744.64610077</v>
+        <v>1443765930.80762589</v>
       </c>
       <c r="D37" t="str">
         <v>100000.00</v>
       </c>
       <c r="E37" t="str">
-        <v>26200088.16911102</v>
+        <v>32750110.21138877</v>
       </c>
       <c r="F37" t="str">
-        <v>844.98725536</v>
+        <v>1056.23406920</v>
       </c>
       <c r="G37" t="str">
-        <v>Wed Feb  9 15:59:28 2022</v>
+        <v>Mon Feb 28 11:38:51 2022</v>
       </c>
     </row>
     <row r="38">
@@ -1159,22 +1159,22 @@
         <v>6400000.00000000</v>
       </c>
       <c r="B38" t="str">
-        <v>819187259.48617862</v>
+        <v>1023984074.35772335</v>
       </c>
       <c r="C38" t="str">
-        <v>1180812740.51382138</v>
+        <v>1476015925.64227665</v>
       </c>
       <c r="D38" t="str">
         <v>100000.00</v>
       </c>
       <c r="E38" t="str">
-        <v>25799995.86772061</v>
+        <v>32249994.83465076</v>
       </c>
       <c r="F38" t="str">
-        <v>819.18725949</v>
+        <v>1023.98407436</v>
       </c>
       <c r="G38" t="str">
-        <v>Wed Feb  9 15:59:28 2022</v>
+        <v>Mon Feb 28 11:38:51 2022</v>
       </c>
     </row>
     <row r="39">
@@ -1182,22 +1182,22 @@
         <v>6300000.00000000</v>
       </c>
       <c r="B39" t="str">
-        <v>793787539.31855016</v>
+        <v>992234424.14818777</v>
       </c>
       <c r="C39" t="str">
-        <v>1206212460.68144984</v>
+        <v>1507765575.85181223</v>
       </c>
       <c r="D39" t="str">
         <v>100000.00</v>
       </c>
       <c r="E39" t="str">
-        <v>25399720.16762846</v>
+        <v>31749650.20953558</v>
       </c>
       <c r="F39" t="str">
-        <v>793.78753932</v>
+        <v>992.23442415</v>
       </c>
       <c r="G39" t="str">
-        <v>Wed Feb  9 15:59:28 2022</v>
+        <v>Mon Feb 28 11:38:52 2022</v>
       </c>
     </row>
     <row r="40">
@@ -1205,22 +1205,22 @@
         <v>6200000.00000000</v>
       </c>
       <c r="B40" t="str">
-        <v>768787200.76771242</v>
+        <v>960984000.95964059</v>
       </c>
       <c r="C40" t="str">
-        <v>1231212799.23228758</v>
+        <v>1539015999.04035941</v>
       </c>
       <c r="D40" t="str">
         <v>100000.00</v>
       </c>
       <c r="E40" t="str">
-        <v>25000338.55083774</v>
+        <v>31250423.18854718</v>
       </c>
       <c r="F40" t="str">
-        <v>768.78720077</v>
+        <v>960.98400096</v>
       </c>
       <c r="G40" t="str">
-        <v>Wed Feb  9 15:59:28 2022</v>
+        <v>Mon Feb 28 11:38:52 2022</v>
       </c>
     </row>
     <row r="41">
@@ -1228,22 +1228,22 @@
         <v>6100000.00000000</v>
       </c>
       <c r="B41" t="str">
-        <v>744187547.91754715</v>
+        <v>930234434.89693401</v>
       </c>
       <c r="C41" t="str">
-        <v>1255812452.08245285</v>
+        <v>1569765565.10306599</v>
       </c>
       <c r="D41" t="str">
         <v>100000.00</v>
       </c>
       <c r="E41" t="str">
-        <v>24599652.85016527</v>
+        <v>30749566.06270658</v>
       </c>
       <c r="F41" t="str">
-        <v>744.18754792</v>
+        <v>930.23443490</v>
       </c>
       <c r="G41" t="str">
-        <v>Wed Feb  9 15:59:28 2022</v>
+        <v>Mon Feb 28 11:38:52 2022</v>
       </c>
     </row>
     <row r="42">
@@ -1251,22 +1251,22 @@
         <v>6000000.00000000</v>
       </c>
       <c r="B42" t="str">
-        <v>719987313.04681643</v>
+        <v>899984141.30852061</v>
       </c>
       <c r="C42" t="str">
-        <v>1280012686.95318357</v>
+        <v>1600015858.69147939</v>
       </c>
       <c r="D42" t="str">
         <v>100000.00</v>
       </c>
       <c r="E42" t="str">
-        <v>24200234.87073072</v>
+        <v>30250293.58841340</v>
       </c>
       <c r="F42" t="str">
-        <v>719.98731305</v>
+        <v>899.98414131</v>
       </c>
       <c r="G42" t="str">
-        <v>Wed Feb  9 15:59:28 2022</v>
+        <v>Mon Feb 28 11:38:52 2022</v>
       </c>
     </row>
     <row r="43">
@@ -1274,22 +1274,22 @@
         <v>5900000.00000000</v>
       </c>
       <c r="B43" t="str">
-        <v>696187412.42674086</v>
+        <v>870234265.53342615</v>
       </c>
       <c r="C43" t="str">
-        <v>1303812587.57325914</v>
+        <v>1629765734.46657385</v>
       </c>
       <c r="D43" t="str">
         <v>100000.00</v>
       </c>
       <c r="E43" t="str">
-        <v>23799900.62007557</v>
+        <v>29749875.77509446</v>
       </c>
       <c r="F43" t="str">
-        <v>696.18741243</v>
+        <v>870.23426554</v>
       </c>
       <c r="G43" t="str">
-        <v>Wed Feb  9 15:59:29 2022</v>
+        <v>Mon Feb 28 11:38:52 2022</v>
       </c>
     </row>
     <row r="44">
@@ -1297,22 +1297,22 @@
         <v>5800000.00000000</v>
       </c>
       <c r="B44" t="str">
-        <v>672787161.12025324</v>
+        <v>840983951.40031663</v>
       </c>
       <c r="C44" t="str">
-        <v>1327212838.87974676</v>
+        <v>1659016048.59968337</v>
       </c>
       <c r="D44" t="str">
         <v>100000.00</v>
       </c>
       <c r="E44" t="str">
-        <v>23400251.30648762</v>
+        <v>29250314.13310952</v>
       </c>
       <c r="F44" t="str">
-        <v>672.78716113</v>
+        <v>840.98395141</v>
       </c>
       <c r="G44" t="str">
-        <v>Wed Feb  9 15:59:29 2022</v>
+        <v>Mon Feb 28 11:38:52 2022</v>
       </c>
     </row>
     <row r="45">
@@ -1320,22 +1320,22 @@
         <v>5700000.00000000</v>
       </c>
       <c r="B45" t="str">
-        <v>649787259.23019626</v>
+        <v>812234074.03774540</v>
       </c>
       <c r="C45" t="str">
-        <v>1350212740.76980374</v>
+        <v>1687765925.96225460</v>
       </c>
       <c r="D45" t="str">
         <v>100000.00</v>
       </c>
       <c r="E45" t="str">
-        <v>22999901.89005698</v>
+        <v>28749877.36257123</v>
       </c>
       <c r="F45" t="str">
-        <v>649.78725924</v>
+        <v>812.23407404</v>
       </c>
       <c r="G45" t="str">
-        <v>Wed Feb  9 15:59:29 2022</v>
+        <v>Mon Feb 28 11:38:53 2022</v>
       </c>
     </row>
     <row r="46">
@@ -1343,22 +1343,22 @@
         <v>5600000.00000000</v>
       </c>
       <c r="B46" t="str">
-        <v>627187658.35417003</v>
+        <v>783984572.94271261</v>
       </c>
       <c r="C46" t="str">
-        <v>1372812341.64582997</v>
+        <v>1716015427.05728739</v>
       </c>
       <c r="D46" t="str">
         <v>100000.00</v>
       </c>
       <c r="E46" t="str">
-        <v>22599600.87602623</v>
+        <v>28249501.09503279</v>
       </c>
       <c r="F46" t="str">
-        <v>627.18765836</v>
+        <v>783.98457295</v>
       </c>
       <c r="G46" t="str">
-        <v>Wed Feb  9 15:59:29 2022</v>
+        <v>Mon Feb 28 11:38:53 2022</v>
       </c>
     </row>
     <row r="47">
@@ -1366,22 +1366,22 @@
         <v>5500000.00000000</v>
       </c>
       <c r="B47" t="str">
-        <v>604987723.99906582</v>
+        <v>756234654.99883235</v>
       </c>
       <c r="C47" t="str">
-        <v>1395012276.00093418</v>
+        <v>1743765345.00116765</v>
       </c>
       <c r="D47" t="str">
         <v>100000.00</v>
       </c>
       <c r="E47" t="str">
-        <v>22199934.35510421</v>
+        <v>27749917.94388026</v>
       </c>
       <c r="F47" t="str">
-        <v>604.98772400</v>
+        <v>756.23465500</v>
       </c>
       <c r="G47" t="str">
-        <v>Wed Feb  9 15:59:29 2022</v>
+        <v>Mon Feb 28 11:38:53 2022</v>
       </c>
     </row>
     <row r="48">
@@ -1389,22 +1389,22 @@
         <v>5400000.00000000</v>
       </c>
       <c r="B48" t="str">
-        <v>583187596.35248348</v>
+        <v>728984495.44060442</v>
       </c>
       <c r="C48" t="str">
-        <v>1416812403.64751652</v>
+        <v>1771015504.55939558</v>
       </c>
       <c r="D48" t="str">
         <v>100000.00</v>
       </c>
       <c r="E48" t="str">
-        <v>21800127.64658234</v>
+        <v>27250159.55822793</v>
       </c>
       <c r="F48" t="str">
-        <v>583.18759636</v>
+        <v>728.98449545</v>
       </c>
       <c r="G48" t="str">
-        <v>Wed Feb  9 15:59:29 2022</v>
+        <v>Mon Feb 28 11:38:53 2022</v>
       </c>
     </row>
     <row r="49">
@@ -1412,22 +1412,22 @@
         <v>5300000.00000000</v>
       </c>
       <c r="B49" t="str">
-        <v>561787527.50432909</v>
+        <v>702234409.38041144</v>
       </c>
       <c r="C49" t="str">
-        <v>1438212472.49567091</v>
+        <v>1797765590.61958856</v>
       </c>
       <c r="D49" t="str">
         <v>100000.00</v>
       </c>
       <c r="E49" t="str">
-        <v>21400068.84815439</v>
+        <v>26750086.06019298</v>
       </c>
       <c r="F49" t="str">
-        <v>561.78752751</v>
+        <v>702.23440939</v>
       </c>
       <c r="G49" t="str">
-        <v>Wed Feb  9 15:59:30 2022</v>
+        <v>Mon Feb 28 11:38:53 2022</v>
       </c>
     </row>
     <row r="50">
@@ -1435,22 +1435,22 @@
         <v>5200000.00000000</v>
       </c>
       <c r="B50" t="str">
-        <v>540787909.72621726</v>
+        <v>675984887.15777166</v>
       </c>
       <c r="C50" t="str">
-        <v>1459212090.27378274</v>
+        <v>1824015112.84222834</v>
       </c>
       <c r="D50" t="str">
         <v>100000.00</v>
       </c>
       <c r="E50" t="str">
-        <v>20999617.77811183</v>
+        <v>26249522.22263978</v>
       </c>
       <c r="F50" t="str">
-        <v>540.78790973</v>
+        <v>675.98488716</v>
       </c>
       <c r="G50" t="str">
-        <v>Wed Feb  9 15:59:30 2022</v>
+        <v>Mon Feb 28 11:38:54 2022</v>
       </c>
     </row>
     <row r="51">
@@ -1458,22 +1458,22 @@
         <v>5100000.00000000</v>
       </c>
       <c r="B51" t="str">
-        <v>520188216.66892619</v>
+        <v>650235270.83615782</v>
       </c>
       <c r="C51" t="str">
-        <v>1479811783.33107381</v>
+        <v>1849764729.16384218</v>
       </c>
       <c r="D51" t="str">
         <v>100000.00</v>
       </c>
       <c r="E51" t="str">
-        <v>20599693.05729107</v>
+        <v>25749616.32161384</v>
       </c>
       <c r="F51" t="str">
-        <v>520.18821667</v>
+        <v>650.23527084</v>
       </c>
       <c r="G51" t="str">
-        <v>Wed Feb  9 15:59:30 2022</v>
+        <v>Mon Feb 28 11:38:54 2022</v>
       </c>
     </row>
     <row r="52">
@@ -1481,22 +1481,22 @@
         <v>5000000.00000000</v>
       </c>
       <c r="B52" t="str">
-        <v>499988267.83923844</v>
+        <v>624985334.79904813</v>
       </c>
       <c r="C52" t="str">
-        <v>1500011732.16076156</v>
+        <v>1875014665.20095187</v>
       </c>
       <c r="D52" t="str">
         <v>100000.00</v>
       </c>
       <c r="E52" t="str">
-        <v>20199948.82968775</v>
+        <v>25249936.03710969</v>
       </c>
       <c r="F52" t="str">
-        <v>499.98826784</v>
+        <v>624.98533480</v>
       </c>
       <c r="G52" t="str">
-        <v>Wed Feb  9 15:59:30 2022</v>
+        <v>Mon Feb 28 11:38:54 2022</v>
       </c>
     </row>
     <row r="53">
@@ -1504,22 +1504,22 @@
         <v>4900000.00000000</v>
       </c>
       <c r="B53" t="str">
-        <v>480188732.43280459</v>
+        <v>600235915.54100582</v>
       </c>
       <c r="C53" t="str">
-        <v>1519811267.56719541</v>
+        <v>1899764084.45899418</v>
       </c>
       <c r="D53" t="str">
         <v>100000.00</v>
       </c>
       <c r="E53" t="str">
-        <v>19799535.40643385</v>
+        <v>24749419.25804231</v>
       </c>
       <c r="F53" t="str">
-        <v>480.18873244</v>
+        <v>600.23591555</v>
       </c>
       <c r="G53" t="str">
-        <v>Wed Feb  9 15:59:30 2022</v>
+        <v>Mon Feb 28 11:38:54 2022</v>
       </c>
     </row>
     <row r="54">
@@ -1527,22 +1527,22 @@
         <v>4800000.00000000</v>
       </c>
       <c r="B54" t="str">
-        <v>460789107.64251928</v>
+        <v>575986384.55314918</v>
       </c>
       <c r="C54" t="str">
-        <v>1539210892.35748072</v>
+        <v>1924013615.44685082</v>
       </c>
       <c r="D54" t="str">
         <v>100000.00</v>
       </c>
       <c r="E54" t="str">
-        <v>19399624.79028531</v>
+        <v>24249530.98785664</v>
       </c>
       <c r="F54" t="str">
-        <v>460.78910765</v>
+        <v>575.98638456</v>
       </c>
       <c r="G54" t="str">
-        <v>Wed Feb  9 15:59:30 2022</v>
+        <v>Mon Feb 28 11:38:54 2022</v>
       </c>
     </row>
     <row r="55">
@@ -1550,22 +1550,22 @@
         <v>4700000.00000000</v>
       </c>
       <c r="B55" t="str">
-        <v>441789390.36709528</v>
+        <v>552236737.95886917</v>
       </c>
       <c r="C55" t="str">
-        <v>1558210609.63290472</v>
+        <v>1947763262.04113083</v>
       </c>
       <c r="D55" t="str">
         <v>100000.00</v>
       </c>
       <c r="E55" t="str">
-        <v>18999717.27542400</v>
+        <v>23749646.59428001</v>
       </c>
       <c r="F55" t="str">
-        <v>441.78939037</v>
+        <v>552.23673796</v>
       </c>
       <c r="G55" t="str">
-        <v>Wed Feb  9 15:59:31 2022</v>
+        <v>Mon Feb 28 11:38:54 2022</v>
       </c>
     </row>
     <row r="56">
@@ -1573,22 +1573,22 @@
         <v>4600000.00000000</v>
       </c>
       <c r="B56" t="str">
-        <v>423189615.24325020</v>
+        <v>528987019.05406281</v>
       </c>
       <c r="C56" t="str">
-        <v>1576810384.75674980</v>
+        <v>1971012980.94593719</v>
       </c>
       <c r="D56" t="str">
         <v>100000.00</v>
       </c>
       <c r="E56" t="str">
-        <v>18599775.12384508</v>
+        <v>23249718.90480636</v>
       </c>
       <c r="F56" t="str">
-        <v>423.18961525</v>
+        <v>528.98701906</v>
       </c>
       <c r="G56" t="str">
-        <v>Wed Feb  9 15:59:31 2022</v>
+        <v>Mon Feb 28 11:38:55 2022</v>
       </c>
     </row>
     <row r="57">
@@ -1596,22 +1596,22 @@
         <v>4500000.00000000</v>
       </c>
       <c r="B57" t="str">
-        <v>404989922.65009898</v>
+        <v>506237403.31262378</v>
       </c>
       <c r="C57" t="str">
-        <v>1595010077.34990102</v>
+        <v>1993762596.68737622</v>
       </c>
       <c r="D57" t="str">
         <v>100000.00</v>
       </c>
       <c r="E57" t="str">
-        <v>18199692.59315122</v>
+        <v>22749615.74143903</v>
       </c>
       <c r="F57" t="str">
-        <v>404.98992266</v>
+        <v>506.23740332</v>
       </c>
       <c r="G57" t="str">
-        <v>Wed Feb  9 15:59:31 2022</v>
+        <v>Mon Feb 28 11:38:55 2022</v>
       </c>
     </row>
     <row r="58">
@@ -1619,22 +1619,22 @@
         <v>4400000.00000000</v>
       </c>
       <c r="B58" t="str">
-        <v>387190210.55970447</v>
+        <v>483987763.19963065</v>
       </c>
       <c r="C58" t="str">
-        <v>1612809789.44029553</v>
+        <v>2016012236.80036935</v>
       </c>
       <c r="D58" t="str">
         <v>100000.00</v>
       </c>
       <c r="E58" t="str">
-        <v>17799712.09039451</v>
+        <v>22249640.11299313</v>
       </c>
       <c r="F58" t="str">
-        <v>387.19021056</v>
+        <v>483.98776320</v>
       </c>
       <c r="G58" t="str">
-        <v>Wed Feb  9 15:59:31 2022</v>
+        <v>Mon Feb 28 11:38:55 2022</v>
       </c>
     </row>
     <row r="59">
@@ -1642,22 +1642,22 @@
         <v>4300000.00000000</v>
       </c>
       <c r="B59" t="str">
-        <v>369790269.68736191</v>
+        <v>462237837.10920244</v>
       </c>
       <c r="C59" t="str">
-        <v>1630209730.31263809</v>
+        <v>2037762162.89079756</v>
       </c>
       <c r="D59" t="str">
         <v>100000.00</v>
       </c>
       <c r="E59" t="str">
-        <v>17399940.87234256</v>
+        <v>21749926.09042821</v>
       </c>
       <c r="F59" t="str">
-        <v>369.79026969</v>
+        <v>462.23783711</v>
       </c>
       <c r="G59" t="str">
-        <v>Wed Feb  9 15:59:31 2022</v>
+        <v>Mon Feb 28 11:38:55 2022</v>
       </c>
     </row>
     <row r="60">
@@ -1665,22 +1665,22 @@
         <v>4200000.00000000</v>
       </c>
       <c r="B60" t="str">
-        <v>352790641.19956419</v>
+        <v>440988301.49945529</v>
       </c>
       <c r="C60" t="str">
-        <v>1647209358.80043581</v>
+        <v>2059011698.50054471</v>
       </c>
       <c r="D60" t="str">
         <v>100000.00</v>
       </c>
       <c r="E60" t="str">
-        <v>16999628.48779772</v>
+        <v>21249535.60974715</v>
       </c>
       <c r="F60" t="str">
-        <v>352.79064120</v>
+        <v>440.98830150</v>
       </c>
       <c r="G60" t="str">
-        <v>Wed Feb  9 15:59:31 2022</v>
+        <v>Mon Feb 28 11:38:55 2022</v>
       </c>
     </row>
     <row r="61">
@@ -1688,22 +1688,22 @@
         <v>4100000.00000000</v>
       </c>
       <c r="B61" t="str">
-        <v>336190783.15920109</v>
+        <v>420238478.94900142</v>
       </c>
       <c r="C61" t="str">
-        <v>1663809216.84079891</v>
+        <v>2079761521.05099858</v>
       </c>
       <c r="D61" t="str">
         <v>100000.00</v>
       </c>
       <c r="E61" t="str">
-        <v>16599858.04036310</v>
+        <v>20749822.55045387</v>
       </c>
       <c r="F61" t="str">
-        <v>336.19078316</v>
+        <v>420.23847895</v>
       </c>
       <c r="G61" t="str">
-        <v>Wed Feb  9 15:59:32 2022</v>
+        <v>Mon Feb 28 11:38:56 2022</v>
       </c>
     </row>
     <row r="62">
@@ -1711,22 +1711,22 @@
         <v>4000000.00000000</v>
       </c>
       <c r="B62" t="str">
-        <v>319991094.08189182</v>
+        <v>399988867.60236483</v>
       </c>
       <c r="C62" t="str">
-        <v>1680008905.91810818</v>
+        <v>2100011132.39763517</v>
       </c>
       <c r="D62" t="str">
         <v>100000.00</v>
       </c>
       <c r="E62" t="str">
-        <v>16199689.07730927</v>
+        <v>20249611.34663659</v>
       </c>
       <c r="F62" t="str">
-        <v>319.99109409</v>
+        <v>399.98886761</v>
       </c>
       <c r="G62" t="str">
-        <v>Wed Feb  9 15:59:32 2022</v>
+        <v>Mon Feb 28 11:38:56 2022</v>
       </c>
     </row>
     <row r="63">
@@ -1734,22 +1734,22 @@
         <v>3900000.00000000</v>
       </c>
       <c r="B63" t="str">
-        <v>304191533.81159841</v>
+        <v>380239417.26449806</v>
       </c>
       <c r="C63" t="str">
-        <v>1695808466.18840159</v>
+        <v>2119760582.73550194</v>
       </c>
       <c r="D63" t="str">
         <v>100000.00</v>
       </c>
       <c r="E63" t="str">
-        <v>15799560.27029341</v>
+        <v>19749450.33786677</v>
       </c>
       <c r="F63" t="str">
-        <v>304.19153382</v>
+        <v>380.23941727</v>
       </c>
       <c r="G63" t="str">
-        <v>Wed Feb  9 15:59:32 2022</v>
+        <v>Mon Feb 28 11:38:56 2022</v>
       </c>
     </row>
     <row r="64">
@@ -1757,22 +1757,22 @@
         <v>3800000.00000000</v>
       </c>
       <c r="B64" t="str">
-        <v>288791837.41238624</v>
+        <v>360989796.76548284</v>
       </c>
       <c r="C64" t="str">
-        <v>1711208162.58761376</v>
+        <v>2139010203.23451716</v>
       </c>
       <c r="D64" t="str">
         <v>100000.00</v>
       </c>
       <c r="E64" t="str">
-        <v>15399696.39921217</v>
+        <v>19249620.49901522</v>
       </c>
       <c r="F64" t="str">
-        <v>288.79183742</v>
+        <v>360.98979677</v>
       </c>
       <c r="G64" t="str">
-        <v>Wed Feb  9 15:59:32 2022</v>
+        <v>Mon Feb 28 11:38:56 2022</v>
       </c>
     </row>
     <row r="65">
@@ -1780,22 +1780,22 @@
         <v>3700000.00000000</v>
       </c>
       <c r="B65" t="str">
-        <v>273791989.37718689</v>
+        <v>342239986.72148366</v>
       </c>
       <c r="C65" t="str">
-        <v>1726208010.62281311</v>
+        <v>2157760013.27851634</v>
       </c>
       <c r="D65" t="str">
         <v>100000.00</v>
       </c>
       <c r="E65" t="str">
-        <v>14999848.03519935</v>
+        <v>18749810.04399918</v>
       </c>
       <c r="F65" t="str">
-        <v>273.79198938</v>
+        <v>342.23998673</v>
       </c>
       <c r="G65" t="str">
-        <v>Wed Feb  9 15:59:32 2022</v>
+        <v>Mon Feb 28 11:38:56 2022</v>
       </c>
     </row>
     <row r="66">
@@ -1803,22 +1803,22 @@
         <v>3600000.00000000</v>
       </c>
       <c r="B66" t="str">
-        <v>259192305.33563777</v>
+        <v>323990381.66954726</v>
       </c>
       <c r="C66" t="str">
-        <v>1740807694.66436223</v>
+        <v>2176009618.33045274</v>
       </c>
       <c r="D66" t="str">
         <v>100000.00</v>
       </c>
       <c r="E66" t="str">
-        <v>14599684.04154912</v>
+        <v>18249605.05193640</v>
       </c>
       <c r="F66" t="str">
-        <v>259.19230534</v>
+        <v>323.99038167</v>
       </c>
       <c r="G66" t="str">
-        <v>Wed Feb  9 15:59:32 2022</v>
+        <v>Mon Feb 28 11:38:56 2022</v>
       </c>
     </row>
     <row r="67">
@@ -1826,22 +1826,22 @@
         <v>3500000.00000000</v>
       </c>
       <c r="B67" t="str">
-        <v>244992714.08013019</v>
+        <v>306240892.60016278</v>
       </c>
       <c r="C67" t="str">
-        <v>1755007285.91986981</v>
+        <v>2193759107.39983722</v>
       </c>
       <c r="D67" t="str">
         <v>100000.00</v>
       </c>
       <c r="E67" t="str">
-        <v>14199591.25550758</v>
+        <v>17749489.06938448</v>
       </c>
       <c r="F67" t="str">
-        <v>244.99271409</v>
+        <v>306.24089261</v>
       </c>
       <c r="G67" t="str">
-        <v>Wed Feb  9 15:59:33 2022</v>
+        <v>Mon Feb 28 11:38:57 2022</v>
       </c>
     </row>
     <row r="68">
@@ -1849,22 +1849,22 @@
         <v>3400000.00000000</v>
       </c>
       <c r="B68" t="str">
-        <v>231193009.47413869</v>
+        <v>288991261.84267341</v>
       </c>
       <c r="C68" t="str">
-        <v>1768806990.52586131</v>
+        <v>2211008738.15732659</v>
       </c>
       <c r="D68" t="str">
         <v>100000.00</v>
       </c>
       <c r="E68" t="str">
-        <v>13799704.60599150</v>
+        <v>17249630.75748937</v>
       </c>
       <c r="F68" t="str">
-        <v>231.19300948</v>
+        <v>288.99126185</v>
       </c>
       <c r="G68" t="str">
-        <v>Wed Feb  9 15:59:33 2022</v>
+        <v>Mon Feb 28 11:38:57 2022</v>
       </c>
     </row>
     <row r="69">
@@ -1872,22 +1872,22 @@
         <v>3300000.00000000</v>
       </c>
       <c r="B69" t="str">
-        <v>217793293.83802708</v>
+        <v>272241617.29753390</v>
       </c>
       <c r="C69" t="str">
-        <v>1782206706.16197292</v>
+        <v>2227758382.70246610</v>
       </c>
       <c r="D69" t="str">
         <v>100000.00</v>
       </c>
       <c r="E69" t="str">
-        <v>13399715.63611161</v>
+        <v>16749644.54513951</v>
       </c>
       <c r="F69" t="str">
-        <v>217.79329384</v>
+        <v>272.24161730</v>
       </c>
       <c r="G69" t="str">
-        <v>Wed Feb  9 15:59:33 2022</v>
+        <v>Mon Feb 28 11:38:57 2022</v>
       </c>
     </row>
     <row r="70">
@@ -1895,22 +1895,22 @@
         <v>3200000.00000000</v>
       </c>
       <c r="B70" t="str">
-        <v>204793647.71542291</v>
+        <v>255992059.64427869</v>
       </c>
       <c r="C70" t="str">
-        <v>1795206352.28457709</v>
+        <v>2244007940.35572131</v>
       </c>
       <c r="D70" t="str">
         <v>100000.00</v>
       </c>
       <c r="E70" t="str">
-        <v>12999646.12260417</v>
+        <v>16249557.65325521</v>
       </c>
       <c r="F70" t="str">
-        <v>204.79364772</v>
+        <v>255.99205965</v>
       </c>
       <c r="G70" t="str">
-        <v>Wed Feb  9 15:59:33 2022</v>
+        <v>Mon Feb 28 11:38:57 2022</v>
       </c>
     </row>
     <row r="71">
@@ -1918,22 +1918,22 @@
         <v>3100000.00000000</v>
       </c>
       <c r="B71" t="str">
-        <v>192193923.33337923</v>
+        <v>240242404.16672408</v>
       </c>
       <c r="C71" t="str">
-        <v>1807806076.66662077</v>
+        <v>2259757595.83327592</v>
       </c>
       <c r="D71" t="str">
         <v>100000.00</v>
       </c>
       <c r="E71" t="str">
-        <v>12599724.38204368</v>
+        <v>15749655.47755461</v>
       </c>
       <c r="F71" t="str">
-        <v>192.19392334</v>
+        <v>240.24240417</v>
       </c>
       <c r="G71" t="str">
-        <v>Wed Feb  9 15:59:33 2022</v>
+        <v>Mon Feb 28 11:38:57 2022</v>
       </c>
     </row>
     <row r="72">
@@ -1941,22 +1941,22 @@
         <v>3000000.00000000</v>
       </c>
       <c r="B72" t="str">
-        <v>179994221.85586964</v>
+        <v>224992777.31983710</v>
       </c>
       <c r="C72" t="str">
-        <v>1820005778.14413036</v>
+        <v>2275007222.68016290</v>
       </c>
       <c r="D72" t="str">
         <v>100000.00</v>
       </c>
       <c r="E72" t="str">
-        <v>12199701.47750959</v>
+        <v>15249626.84688698</v>
       </c>
       <c r="F72" t="str">
-        <v>179.99422186</v>
+        <v>224.99277732</v>
       </c>
       <c r="G72" t="str">
-        <v>Wed Feb  9 15:59:33 2022</v>
+        <v>Mon Feb 28 11:38:58 2022</v>
       </c>
     </row>
     <row r="73">
@@ -1964,22 +1964,22 @@
         <v>2900000.00000000</v>
       </c>
       <c r="B73" t="str">
-        <v>168194520.64788624</v>
+        <v>210243150.80985785</v>
       </c>
       <c r="C73" t="str">
-        <v>1831805479.35211376</v>
+        <v>2289756849.19014215</v>
       </c>
       <c r="D73" t="str">
         <v>100000.00</v>
       </c>
       <c r="E73" t="str">
-        <v>11799701.20798340</v>
+        <v>14749626.50997925</v>
       </c>
       <c r="F73" t="str">
-        <v>168.19452065</v>
+        <v>210.24315081</v>
       </c>
       <c r="G73" t="str">
-        <v>Wed Feb  9 15:59:34 2022</v>
+        <v>Mon Feb 28 11:38:58 2022</v>
       </c>
     </row>
     <row r="74">
@@ -1987,22 +1987,22 @@
         <v>2800000.00000000</v>
       </c>
       <c r="B74" t="str">
-        <v>156794800.62193445</v>
+        <v>195993500.77741811</v>
       </c>
       <c r="C74" t="str">
-        <v>1843205199.37806555</v>
+        <v>2304006499.22258189</v>
       </c>
       <c r="D74" t="str">
         <v>100000.00</v>
       </c>
       <c r="E74" t="str">
-        <v>11399720.02595179</v>
+        <v>14249650.03243974</v>
       </c>
       <c r="F74" t="str">
-        <v>156.79480063</v>
+        <v>195.99350078</v>
       </c>
       <c r="G74" t="str">
-        <v>Wed Feb  9 15:59:34 2022</v>
+        <v>Mon Feb 28 11:38:58 2022</v>
       </c>
     </row>
     <row r="75">
@@ -2010,22 +2010,22 @@
         <v>2700000.00000000</v>
       </c>
       <c r="B75" t="str">
-        <v>145795018.17910326</v>
+        <v>182243772.72387911</v>
       </c>
       <c r="C75" t="str">
-        <v>1854204981.82089674</v>
+        <v>2317756227.27612089</v>
       </c>
       <c r="D75" t="str">
         <v>100000.00</v>
       </c>
       <c r="E75" t="str">
-        <v>10999782.44283119</v>
+        <v>13749728.05353900</v>
       </c>
       <c r="F75" t="str">
-        <v>145.79501818</v>
+        <v>182.24377273</v>
       </c>
       <c r="G75" t="str">
-        <v>Wed Feb  9 15:59:34 2022</v>
+        <v>Mon Feb 28 11:38:58 2022</v>
       </c>
     </row>
     <row r="76">
@@ -2033,22 +2033,22 @@
         <v>2600000.00000000</v>
       </c>
       <c r="B76" t="str">
-        <v>135195282.97242791</v>
+        <v>168994103.71553492</v>
       </c>
       <c r="C76" t="str">
-        <v>1864804717.02757209</v>
+        <v>2331005896.28446508</v>
       </c>
       <c r="D76" t="str">
         <v>100000.00</v>
       </c>
       <c r="E76" t="str">
-        <v>10599735.20667535</v>
+        <v>13249669.00834419</v>
       </c>
       <c r="F76" t="str">
-        <v>135.19528298</v>
+        <v>168.99410372</v>
       </c>
       <c r="G76" t="str">
-        <v>Wed Feb  9 15:59:34 2022</v>
+        <v>Mon Feb 28 11:38:58 2022</v>
       </c>
     </row>
     <row r="77">
@@ -2056,22 +2056,22 @@
         <v>2500000.00000000</v>
       </c>
       <c r="B77" t="str">
-        <v>124995610.04385605</v>
+        <v>156244512.55482010</v>
       </c>
       <c r="C77" t="str">
-        <v>1875004389.95614395</v>
+        <v>2343755487.44517990</v>
       </c>
       <c r="D77" t="str">
         <v>100000.00</v>
       </c>
       <c r="E77" t="str">
-        <v>10199672.92857186</v>
+        <v>12749591.16071482</v>
       </c>
       <c r="F77" t="str">
-        <v>124.99561005</v>
+        <v>156.24451256</v>
       </c>
       <c r="G77" t="str">
-        <v>Wed Feb  9 15:59:34 2022</v>
+        <v>Mon Feb 28 11:38:58 2022</v>
       </c>
     </row>
     <row r="78">
@@ -2079,22 +2079,22 @@
         <v>2400000.00000000</v>
       </c>
       <c r="B78" t="str">
-        <v>115195954.21641773</v>
+        <v>143994942.77052220</v>
       </c>
       <c r="C78" t="str">
-        <v>1884804045.78358227</v>
+        <v>2356005057.22947780</v>
       </c>
       <c r="D78" t="str">
         <v>100000.00</v>
       </c>
       <c r="E78" t="str">
-        <v>9799655.82743832</v>
+        <v>12249569.78429790</v>
       </c>
       <c r="F78" t="str">
-        <v>115.19595422</v>
+        <v>143.99494278</v>
       </c>
       <c r="G78" t="str">
-        <v>Wed Feb  9 15:59:34 2022</v>
+        <v>Mon Feb 28 11:38:59 2022</v>
       </c>
     </row>
     <row r="79">
@@ -2102,22 +2102,22 @@
         <v>2300000.00000000</v>
       </c>
       <c r="B79" t="str">
-        <v>105796194.74426647</v>
+        <v>132245243.43033312</v>
       </c>
       <c r="C79" t="str">
-        <v>1894203805.25573353</v>
+        <v>2367754756.56966688</v>
       </c>
       <c r="D79" t="str">
         <v>100000.00</v>
       </c>
       <c r="E79" t="str">
-        <v>9399759.47215126</v>
+        <v>11749699.34018908</v>
       </c>
       <c r="F79" t="str">
-        <v>105.79619475</v>
+        <v>132.24524344</v>
       </c>
       <c r="G79" t="str">
-        <v>Wed Feb  9 15:59:34 2022</v>
+        <v>Mon Feb 28 11:38:59 2022</v>
       </c>
     </row>
     <row r="80">
@@ -2125,22 +2125,22 @@
         <v>2200000.00000000</v>
       </c>
       <c r="B80" t="str">
-        <v>96796429.84595595</v>
+        <v>120995537.30744497</v>
       </c>
       <c r="C80" t="str">
-        <v>1903203570.15404405</v>
+        <v>2379004462.69255503</v>
       </c>
       <c r="D80" t="str">
         <v>100000.00</v>
       </c>
       <c r="E80" t="str">
-        <v>8999764.89831052</v>
+        <v>11249706.12288815</v>
       </c>
       <c r="F80" t="str">
-        <v>96.79642985</v>
+        <v>120.99553731</v>
       </c>
       <c r="G80" t="str">
-        <v>Wed Feb  9 15:59:35 2022</v>
+        <v>Mon Feb 28 11:38:59 2022</v>
       </c>
     </row>
     <row r="81">
@@ -2148,22 +2148,22 @@
         <v>2100000.00000000</v>
       </c>
       <c r="B81" t="str">
-        <v>88196744.62915168</v>
+        <v>110245930.78643963</v>
       </c>
       <c r="C81" t="str">
-        <v>1911803255.37084832</v>
+        <v>2389754069.21356037</v>
       </c>
       <c r="D81" t="str">
         <v>100000.00</v>
       </c>
       <c r="E81" t="str">
-        <v>8599685.21680427</v>
+        <v>10749606.52100534</v>
       </c>
       <c r="F81" t="str">
-        <v>88.19674463</v>
+        <v>110.24593079</v>
       </c>
       <c r="G81" t="str">
-        <v>Wed Feb  9 15:59:35 2022</v>
+        <v>Mon Feb 28 11:38:59 2022</v>
       </c>
     </row>
     <row r="82">
@@ -2171,22 +2171,22 @@
         <v>2000000.00000000</v>
       </c>
       <c r="B82" t="str">
-        <v>79997005.08423481</v>
+        <v>99996256.35529355</v>
       </c>
       <c r="C82" t="str">
-        <v>1920002994.91576519</v>
+        <v>2400003743.64470645</v>
       </c>
       <c r="D82" t="str">
         <v>100000.00</v>
       </c>
       <c r="E82" t="str">
-        <v>8199739.54491687</v>
+        <v>10249674.43114608</v>
       </c>
       <c r="F82" t="str">
-        <v>79.99700509</v>
+        <v>99.99625636</v>
       </c>
       <c r="G82" t="str">
-        <v>Wed Feb  9 15:59:35 2022</v>
+        <v>Mon Feb 28 11:38:59 2022</v>
       </c>
     </row>
     <row r="83">
@@ -2194,22 +2194,22 @@
         <v>1900000.00000000</v>
       </c>
       <c r="B83" t="str">
-        <v>72197297.08852191</v>
+        <v>90246621.36065242</v>
       </c>
       <c r="C83" t="str">
-        <v>1927802702.91147809</v>
+        <v>2409753378.63934758</v>
       </c>
       <c r="D83" t="str">
         <v>100000.00</v>
       </c>
       <c r="E83" t="str">
-        <v>7799707.99571290</v>
+        <v>9749634.99464113</v>
       </c>
       <c r="F83" t="str">
-        <v>144.39459418</v>
+        <v>180.49324273</v>
       </c>
       <c r="G83" t="str">
-        <v>Wed Feb  9 15:59:35 2022</v>
+        <v>Mon Feb 28 11:39:00 2022</v>
       </c>
     </row>
     <row r="84">
@@ -2217,22 +2217,22 @@
         <v>1800000.00000000</v>
       </c>
       <c r="B84" t="str">
-        <v>64797507.32073094</v>
+        <v>80996884.15091371</v>
       </c>
       <c r="C84" t="str">
-        <v>1935202492.67926906</v>
+        <v>2419003115.84908629</v>
       </c>
       <c r="D84" t="str">
         <v>100000.00</v>
       </c>
       <c r="E84" t="str">
-        <v>7399789.76779097</v>
+        <v>9249737.20973871</v>
       </c>
       <c r="F84" t="str">
-        <v>129.59501465</v>
+        <v>161.99376831</v>
       </c>
       <c r="G84" t="str">
-        <v>Wed Feb  9 15:59:35 2022</v>
+        <v>Mon Feb 28 11:39:00 2022</v>
       </c>
     </row>
     <row r="85">
@@ -2240,22 +2240,22 @@
         <v>1700000.00000000</v>
       </c>
       <c r="B85" t="str">
-        <v>57797756.59240898</v>
+        <v>72247195.74051125</v>
       </c>
       <c r="C85" t="str">
-        <v>1942202243.40759102</v>
+        <v>2427752804.25948875</v>
       </c>
       <c r="D85" t="str">
         <v>100000.00</v>
       </c>
       <c r="E85" t="str">
-        <v>6999750.72832196</v>
+        <v>8749688.41040246</v>
       </c>
       <c r="F85" t="str">
-        <v>115.59551319</v>
+        <v>144.49439149</v>
       </c>
       <c r="G85" t="str">
-        <v>Wed Feb  9 15:59:36 2022</v>
+        <v>Mon Feb 28 11:39:00 2022</v>
       </c>
     </row>
     <row r="86">
@@ -2263,22 +2263,22 @@
         <v>1600000.00000000</v>
       </c>
       <c r="B86" t="str">
-        <v>51198004.16039157</v>
+        <v>63997505.20048949</v>
       </c>
       <c r="C86" t="str">
-        <v>1948801995.83960843</v>
+        <v>2436002494.79951051</v>
       </c>
       <c r="D86" t="str">
         <v>100000.00</v>
       </c>
       <c r="E86" t="str">
-        <v>6599752.43201741</v>
+        <v>8249690.54002176</v>
       </c>
       <c r="F86" t="str">
-        <v>102.39600833</v>
+        <v>127.99501041</v>
       </c>
       <c r="G86" t="str">
-        <v>Wed Feb  9 15:59:36 2022</v>
+        <v>Mon Feb 28 11:39:00 2022</v>
       </c>
     </row>
     <row r="87">
@@ -2286,22 +2286,22 @@
         <v>1500000.00000000</v>
       </c>
       <c r="B87" t="str">
-        <v>44998233.04459311</v>
+        <v>56247791.30574141</v>
       </c>
       <c r="C87" t="str">
-        <v>1955001766.95540689</v>
+        <v>2443752208.69425859</v>
       </c>
       <c r="D87" t="str">
         <v>100000.00</v>
       </c>
       <c r="E87" t="str">
-        <v>6199771.11579846</v>
+        <v>7749713.89474808</v>
       </c>
       <c r="F87" t="str">
-        <v>89.99646609</v>
+        <v>112.49558262</v>
       </c>
       <c r="G87" t="str">
-        <v>Wed Feb  9 15:59:36 2022</v>
+        <v>Mon Feb 28 11:39:00 2022</v>
       </c>
     </row>
     <row r="88">
@@ -2309,22 +2309,22 @@
         <v>1400000.00000000</v>
       </c>
       <c r="B88" t="str">
-        <v>39198455.78570854</v>
+        <v>48998069.73213570</v>
       </c>
       <c r="C88" t="str">
-        <v>1960801544.21429146</v>
+        <v>2451001930.26786430</v>
       </c>
       <c r="D88" t="str">
         <v>100000.00</v>
       </c>
       <c r="E88" t="str">
-        <v>5799777.25888457</v>
+        <v>7249721.57360571</v>
       </c>
       <c r="F88" t="str">
-        <v>78.39691158</v>
+        <v>97.99613947</v>
       </c>
       <c r="G88" t="str">
-        <v>Wed Feb  9 15:59:36 2022</v>
+        <v>Mon Feb 28 11:39:01 2022</v>
       </c>
     </row>
     <row r="89">
@@ -2332,22 +2332,22 @@
         <v>1300000.00000000</v>
       </c>
       <c r="B89" t="str">
-        <v>33798633.31049247</v>
+        <v>42248291.63811561</v>
       </c>
       <c r="C89" t="str">
-        <v>1966201366.68950753</v>
+        <v>2457751708.36188439</v>
       </c>
       <c r="D89" t="str">
         <v>100000.00</v>
       </c>
       <c r="E89" t="str">
-        <v>5399822.47521607</v>
+        <v>6749778.09402009</v>
       </c>
       <c r="F89" t="str">
-        <v>67.59726663</v>
+        <v>84.49658328</v>
       </c>
       <c r="G89" t="str">
-        <v>Wed Feb  9 15:59:36 2022</v>
+        <v>Mon Feb 28 11:39:01 2022</v>
       </c>
     </row>
     <row r="90">
@@ -2355,22 +2355,22 @@
         <v>1200000.00000000</v>
       </c>
       <c r="B90" t="str">
-        <v>28798835.28350462</v>
+        <v>35998544.10438080</v>
       </c>
       <c r="C90" t="str">
-        <v>1971201164.71649538</v>
+        <v>2464001455.89561920</v>
       </c>
       <c r="D90" t="str">
         <v>100000.00</v>
       </c>
       <c r="E90" t="str">
-        <v>4999798.02698785</v>
+        <v>6249747.53373481</v>
       </c>
       <c r="F90" t="str">
-        <v>57.59767057</v>
+        <v>71.99708821</v>
       </c>
       <c r="G90" t="str">
-        <v>Wed Feb  9 15:59:36 2022</v>
+        <v>Mon Feb 28 11:39:01 2022</v>
       </c>
     </row>
     <row r="91">
@@ -2378,22 +2378,22 @@
         <v>1100000.00000000</v>
       </c>
       <c r="B91" t="str">
-        <v>24198998.91551741</v>
+        <v>30248748.64439678</v>
       </c>
       <c r="C91" t="str">
-        <v>1975801001.08448259</v>
+        <v>2469751251.35560322</v>
       </c>
       <c r="D91" t="str">
         <v>100000.00</v>
       </c>
       <c r="E91" t="str">
-        <v>4599836.36798721</v>
+        <v>5749795.45998402</v>
       </c>
       <c r="F91" t="str">
-        <v>48.39799784</v>
+        <v>60.49749729</v>
       </c>
       <c r="G91" t="str">
-        <v>Wed Feb  9 15:59:36 2022</v>
+        <v>Mon Feb 28 11:39:01 2022</v>
       </c>
     </row>
     <row r="92">
@@ -2401,22 +2401,22 @@
         <v>1000000.00000000</v>
       </c>
       <c r="B92" t="str">
-        <v>19999165.85773370</v>
+        <v>24998957.32216714</v>
       </c>
       <c r="C92" t="str">
-        <v>1980000834.14226630</v>
+        <v>2475001042.67783286</v>
       </c>
       <c r="D92" t="str">
         <v>100000.00</v>
       </c>
       <c r="E92" t="str">
-        <v>4199833.05778371</v>
+        <v>5249791.32222964</v>
       </c>
       <c r="F92" t="str">
-        <v>39.99833172</v>
+        <v>49.99791465</v>
       </c>
       <c r="G92" t="str">
-        <v>Wed Feb  9 15:59:37 2022</v>
+        <v>Mon Feb 28 11:39:01 2022</v>
       </c>
     </row>
     <row r="93">
@@ -2424,22 +2424,22 @@
         <v>900000.00000000</v>
       </c>
       <c r="B93" t="str">
-        <v>16199324.34476429</v>
+        <v>20249155.43095538</v>
       </c>
       <c r="C93" t="str">
-        <v>1983800675.65523571</v>
+        <v>2479750844.56904462</v>
       </c>
       <c r="D93" t="str">
         <v>100000.00</v>
       </c>
       <c r="E93" t="str">
-        <v>3799841.51296941</v>
+        <v>4749801.89121176</v>
       </c>
       <c r="F93" t="str">
-        <v>48.59797304</v>
+        <v>60.74746630</v>
       </c>
       <c r="G93" t="str">
-        <v>Wed Feb  9 15:59:37 2022</v>
+        <v>Mon Feb 28 11:39:01 2022</v>
       </c>
     </row>
     <row r="94">
@@ -2447,22 +2447,22 @@
         <v>800000.00000000</v>
       </c>
       <c r="B94" t="str">
-        <v>12799458.74925819</v>
+        <v>15999323.43657275</v>
       </c>
       <c r="C94" t="str">
-        <v>1987200541.25074181</v>
+        <v>2484000676.56342725</v>
       </c>
       <c r="D94" t="str">
         <v>100000.00</v>
       </c>
       <c r="E94" t="str">
-        <v>3399865.59550610</v>
+        <v>4249831.99438263</v>
       </c>
       <c r="F94" t="str">
-        <v>38.39837625</v>
+        <v>47.99797031</v>
       </c>
       <c r="G94" t="str">
-        <v>Wed Feb  9 15:59:37 2022</v>
+        <v>Mon Feb 28 11:39:02 2022</v>
       </c>
     </row>
     <row r="95">
@@ -2470,22 +2470,22 @@
         <v>700000.00000000</v>
       </c>
       <c r="B95" t="str">
-        <v>9799585.60490080</v>
+        <v>12249482.00612601</v>
       </c>
       <c r="C95" t="str">
-        <v>1990200414.39509920</v>
+        <v>2487750517.99387399</v>
       </c>
       <c r="D95" t="str">
         <v>100000.00</v>
       </c>
       <c r="E95" t="str">
-        <v>2999873.14435739</v>
+        <v>3749841.43044674</v>
       </c>
       <c r="F95" t="str">
-        <v>29.39875682</v>
+        <v>36.74844602</v>
       </c>
       <c r="G95" t="str">
-        <v>Wed Feb  9 15:59:37 2022</v>
+        <v>Mon Feb 28 11:39:02 2022</v>
       </c>
     </row>
     <row r="96">
@@ -2493,22 +2493,22 @@
         <v>600000.00000000</v>
       </c>
       <c r="B96" t="str">
-        <v>7199686.94682138</v>
+        <v>8999608.68352673</v>
       </c>
       <c r="C96" t="str">
-        <v>1992800313.05317862</v>
+        <v>2491000391.31647327</v>
       </c>
       <c r="D96" t="str">
         <v>100000.00</v>
       </c>
       <c r="E96" t="str">
-        <v>2599898.65807942</v>
+        <v>3249873.32259928</v>
       </c>
       <c r="F96" t="str">
-        <v>28.79874779</v>
+        <v>35.99843474</v>
       </c>
       <c r="G96" t="str">
-        <v>Wed Feb  9 15:59:37 2022</v>
+        <v>Mon Feb 28 11:39:02 2022</v>
       </c>
     </row>
     <row r="97">
@@ -2516,22 +2516,22 @@
         <v>500000.00000000</v>
       </c>
       <c r="B97" t="str">
-        <v>4999779.40209842</v>
+        <v>6249724.25262303</v>
       </c>
       <c r="C97" t="str">
-        <v>1995000220.59790158</v>
+        <v>2493750275.74737697</v>
       </c>
       <c r="D97" t="str">
         <v>100000.00</v>
       </c>
       <c r="E97" t="str">
-        <v>2199907.54472296</v>
+        <v>2749884.43090370</v>
       </c>
       <c r="F97" t="str">
-        <v>19.99911761</v>
+        <v>24.99889702</v>
       </c>
       <c r="G97" t="str">
-        <v>Wed Feb  9 15:59:37 2022</v>
+        <v>Mon Feb 28 11:39:02 2022</v>
       </c>
     </row>
     <row r="98">
@@ -2539,22 +2539,22 @@
         <v>400000.00000000</v>
       </c>
       <c r="B98" t="str">
-        <v>3199858.81734298</v>
+        <v>3999823.52167873</v>
       </c>
       <c r="C98" t="str">
-        <v>1996800141.18265702</v>
+        <v>2496000176.47832127</v>
       </c>
       <c r="D98" t="str">
         <v>100000.00</v>
       </c>
       <c r="E98" t="str">
-        <v>1799920.58475544</v>
+        <v>2249900.73094430</v>
       </c>
       <c r="F98" t="str">
-        <v>15.99929409</v>
+        <v>19.99911761</v>
       </c>
       <c r="G98" t="str">
-        <v>Wed Feb  9 15:59:38 2022</v>
+        <v>Mon Feb 28 11:39:02 2022</v>
       </c>
     </row>
     <row r="99">
@@ -2562,22 +2562,22 @@
         <v>300000.00000000</v>
       </c>
       <c r="B99" t="str">
-        <v>1799920.58475542</v>
+        <v>2249900.73094428</v>
       </c>
       <c r="C99" t="str">
-        <v>1998200079.41524458</v>
+        <v>2497750099.26905572</v>
       </c>
       <c r="D99" t="str">
         <v>100000.00</v>
       </c>
       <c r="E99" t="str">
-        <v>1399938.23258756</v>
+        <v>1749922.79073445</v>
       </c>
       <c r="F99" t="str">
-        <v>12.59944410</v>
+        <v>15.74930512</v>
       </c>
       <c r="G99" t="str">
-        <v>Wed Feb  9 15:59:38 2022</v>
+        <v>Mon Feb 28 11:39:03 2022</v>
       </c>
     </row>
     <row r="100">
@@ -2585,22 +2585,22 @@
         <v>200000.00000000</v>
       </c>
       <c r="B100" t="str">
-        <v>799963.90437103</v>
+        <v>999954.88046379</v>
       </c>
       <c r="C100" t="str">
-        <v>1999200036.09562897</v>
+        <v>2499000045.11953621</v>
       </c>
       <c r="D100" t="str">
         <v>100000.00</v>
       </c>
       <c r="E100" t="str">
-        <v>999956.68038439</v>
+        <v>1249945.85048049</v>
       </c>
       <c r="F100" t="str">
-        <v>7.99963905</v>
+        <v>9.99954881</v>
       </c>
       <c r="G100" t="str">
-        <v>Wed Feb  9 15:59:38 2022</v>
+        <v>Mon Feb 28 11:39:03 2022</v>
       </c>
     </row>
     <row r="101">
@@ -2608,22 +2608,22 @@
         <v>100000.00000000</v>
       </c>
       <c r="B101" t="str">
-        <v>199990.97609275</v>
+        <v>249988.72011594</v>
       </c>
       <c r="C101" t="str">
-        <v>1999800009.02390725</v>
+        <v>2499750011.27988406</v>
       </c>
       <c r="D101" t="str">
         <v>100000.00</v>
       </c>
       <c r="E101" t="str">
-        <v>599972.92827828</v>
+        <v>749966.16034785</v>
       </c>
       <c r="F101" t="str">
-        <v>3.99981953</v>
+        <v>4.99977441</v>
       </c>
       <c r="G101" t="str">
-        <v>Wed Feb  9 15:59:38 2022</v>
+        <v>Mon Feb 28 11:39:03 2022</v>
       </c>
     </row>
     <row r="102">
@@ -2634,19 +2634,19 @@
         <v>0.00000000</v>
       </c>
       <c r="C102" t="str">
-        <v>2000000000.00000000</v>
+        <v>2500000000.00000000</v>
       </c>
       <c r="D102" t="str">
         <v>100000.00</v>
       </c>
       <c r="E102" t="str">
-        <v>199990.97609275</v>
+        <v>249988.72011594</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102" t="str">
-        <v>Wed Feb  9 15:59:38 2022</v>
+        <v>Mon Feb 28 11:39:03 2022</v>
       </c>
     </row>
   </sheetData>
